--- a/Cookie/Befor_Check.xlsx
+++ b/Cookie/Befor_Check.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -505,14 +505,477 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="O13:P14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>IudinevAzolf@mail.ru</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>HRJErrHaJ3Q5mSMFCGFC</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1OWM5NjdjNy00OWEwLTQzMGEtOWEyZi00MDIxMDExOGIxNjAiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MzQwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImYxNDg4ZWYzLTFhMDQtNDUwNC05ZWU0LTZkM2NmMDdhMGEyOSIsImFuUCI6ImZiZTg5NmJlLTdjNTctNDZiNi05ODhhLWNjYjg4ZmFkZjE1ZiIsImFuVSI6IjEwMDAwMDAwNjI5MTI0MzU1MyIsImNhblAiOiJBSUF4Y09CVFJCU1FIU0I1aFNPTWJFY2Fxc1NmNkkwOUR4L0IzamI4S0hhZmVldkkwZC9oN1ZmVTMwbkhJNzdaT1g1aTdrYWdLa0xxaVRBMzMwTXJ2TlpnNWJ5VFhYcENlUW1EY3Rtc3NIT0V5Z0pNZWppNWdtZFRDZWFDc0VsVWZvbnpDZDMrVHRiSlVHMS81dlA1QUpUNi9WMzg3bWJ2R1RscytFRy9xLzh2aDFFT2hnYmllWVFRWnY0TXFSQ3NhZnRSWVVuQUdwVUpYZHZzNzU0N1FBMXBQZ0hEbytuZXVUOFNuTWNhVmxrWjZRQ3UrQVdkeDNDOW4wYXVQeUxLZi9NPSIsImNhblQiOiJBSUFxSE9CUGRKS3Fmbmt6ajFZb0MzZFYzWk1hbUdiZ3h0L056L2g2WnZneFh4WmxuOHFMeFFkRkpidGRZR2tONVdsMWxlVHF2ZVZUNE9GV2FZemJaVjFBZDdDZjRTdUZUNDFCWVZWTEV0ZU1Ga3djZGt0dUpkVkNPSTcvTjkrYWVOVzNNNzFjckdWTzZYOCtTSFdmWnhMdHBjb01zMm8wSVAwWXk2cjFJQnhEdUh2Myt6dEYweG4wSkZMSmlTcXQ0WG9RZUo3YTNlU0NvaGRhc05leFpkNDl1S3g0WXBRQTFYWUI2UWdpVTVaU25YNVVOOEttVkdxMnJDZGNHaURqdEdrPSIsImF1VCI6IjkwZjJiYzg0LTQzYmQtNGNmYi05NjI4LThjMDc4M2VmZDk0OCIsImF1UCI6IjEwMDAwMDAwNjI5MTI0MzU1MyIsImNhdVQiOiJBSUIybU1RZm9qbC9yY0RrYnBlZndZQXNHZ09ERkJZeXpRMlF5ZVpjQVZMcDFRRGVoSm5acXljN2NVOXliWTRDWFFIaGVyU3BnMjR6ZzhsMnJ2MDNjdmdOdnRlR3dORjBwN2I5eUVQSGlmVVJqQ3F4N2VyeS9UcFlDWGtKZjhJeEo2Ynh1VWpPR21hMWtqSDIxSnV6anNXVmlUcVlZWk9OWnFJbllLbUhkQXBXYUxwbk1uTDFncFJLNjN3N2wwcTJpVHZzVk1QR3o4WXRPSkwxREttOWprV3dpNHUzanpLWGhteVEvd09YaVljaHJwSndmU3IvZ1RhUHUvK3B0UEJUYXdJPSIsInYiOiJWMiJ9.BOGHf58TMHp1vOWU_rqwATK90-S5l4vstBV-oR2sDxGqQh_CVMjHEGHU6ZYP8ewAI9VnYkD5eIvWxTBFGFxwSL9zwfF39y_TxolnhFzAQnbjybjMR5zEmlZ4NyGBsXxOnVAv-ocTm9TKnOD-W-_QNDWLxASXEvK_UxCKsJBYZYFfMvh_75TO2hwxq4hDlt6q0X2kFQwiEDL4A_3KljCaVrdoHbMqWoHzslaEWIBW3vqCeymHYa88NRUtyRuxyBIj_7aDgMTga-xe3xW9wV4NHjZKDnFPi6FaNe2yUz5eLahTDq0MZYsk53p-5adywviQ8P5XlTxYL8yf7H1N-V7d7w"}]</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MmRcBOhiZHDSrCZpdQ_KUtiPVT-bWX7B-0QvgAdO9nfA9Ba9SawG0Lie54ggkPFqMJbGRVhU2i-nZ5neBjBOkf0Jgoa8N_JPgxvYYXqY6c4CMZ_0pB97Uzaf6EKbh8ic9lNgAssEG3XzO8zMH1Ghg6NbDGHGJ2B_U4gXsLMTYQi21pS809TOupeSvpQw7b2D3xGmfyieTKuoW_ruhowenJch3vRz73vwc48apYKuO6ynT1EFvoyf98TvAwgJ-s1_jz7El7K5jwUMWgxo09CQATTN_bKqGtFPeOk1uglrp_eAI8_yPWtV2S1S00xHAqr9DnXZpLWCoTihunkHFJen_w.nUT0tQOGDiUolSPS.1rFSh6Jk_N0t0jdnB_Vz31Cgt0HTKA3AECs0qAZWRbi7o2OqkWVC2129tABqEtLZplFzlkRMQ4HFv_8X3ANJYfjyOTf6jlQqsuIhEgNLiRmb7K88BVlHkd8sb7BYaPPx-RY8MOWcCptjQBEMZysvEb-ECV4o_daBilfVr47XqDiBEuwEWIHehIXbr9TzHShDCKZB1M3ewQ5GKqwgjQ7W0JA-8uZi-pEKr5rTr7Y.4uULWSr53O1AMb23a4EiWg</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.LFQIrJGYXfTfNhOX5QF-vRwPLL_tM8MlheGVCttYNXlaRt-jqn4_diuqPLvAVc5BOweVYKpeHBMmFBIuRlnKcbbNVTX2C8oy3wbfDghgPS0plUrKdZEIkGeZPZeeUn89_8Di3eOQr8BDgYxu3X6MUk6TxPX3Ew6J_VpR1sKDUj3MoqHeOa12NmWPz9oF-DOIWTvt8GB_9-UCO6kgYDrLX8dzFQLUVraUM8coy7kgHFhAo0Y0MD-U3Yr-jxJ04CwaxcqTp-9OW2mKeuG_SUdmxrxHMSVgOrij0iBxyqoUDpDETcvHngGQoeC4PnfbmKQXnpBSc0LzXQaA0uA9o1mxIA.v9NoR5qnDWAgWwWA.3OxWtduxtcdsWI0Cze2pIgyk4097sGjaQH33JBNtxjeHB7icICVPGemTEWYvGRfp6Mle2hm1BzBY-KSOLXRujy7ww9WdNsROWk9Ud4LKkOk2RSVf-6r_NRH_cKYj_q9T1KQm-NwrUVtDajp4qqysdqnJs_WWG4amn6hKmkdyXTB-cO02V2a-qbXiWCSEnMbWtrozTJEwMwH7Hgd7hnzEyjIc_rA7wClR1LifCWOj.HOOHekkW-gJec_kzoBvNMQ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>A100000006291243553</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>3107149b-dd87-4800-b6ea-d07d4571dd15</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>7FCCC820-0164-40FB-B0CC-AF22BBD0E533</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mecetembi1978439@mail.ru</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>9ybn7ijfp2CEL7gh3jx7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJjMjhkMWU2ZC03ZDc3LTRmMmQtYWM1NS01MzI5MjAxZmZmODEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NjQzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImNkMzVjN2YxLTdkYjYtNGJhOC1hNzA5LTI2ODczMDhkNjc0MyIsImFuUCI6IjllZWFhZDk5LTVkNTMtNGIyYi1hNjY5LTIxZThjZjE3MmVjZSIsImFuVSI6IjEyMTAwMDA1NDM3NTk2MzIxMSIsImNhblAiOiJBSUJUQithOFNjcHpGcFBWQmtadXo1dDMxTUZmWmU4S09VZkxMWjMrUjNwTlJ5eVQ1MGdiOGE4T00vL25mRTQydFB6T2h0enVTbjNxbjBiT0ZBQTJKMURFdTdJTUVDSlVvdVR4VjFXeC9OcG9HeTdrL2Z4M1M3czAwbUcrcTNPRWprYkhQbEZIeStrQTJ0N2VhREdzbGpwR2dTdnZoVUYxcDNkN05pTWVGWDNtdmViMHh0aGQwNk5ON1RueVJUVUFZSTV5TGIxMVg0NThLQUVUczVrK1NZOFN3emFub0dmMm1xcC9CMC9DdEd1akZYNm1zclJ5QTRRN254SlVVUENIdGRnPSIsImNhblQiOiJBSUI2NjkvUUdnL01PR3FYQXoxaHllalYyUno5ZTFXSGpRTllBQjA4blFvSCtsYUVCUFFrLzlXU3Q4SjNwc3NYbkY2MGgzV2lRZkRwaEg5QVNMVnMrc0ZvdDJGWG5rK2RIUWk1MWxFTFFLNWNiZDdxY2xDQzJhOXEzNHVNTWQyUG1VMWJSS1MrdXVVZVFFZE5EZU9tVXI3MEpBaE8rcEV2RnM5cTI5NWNFc0Zsdk5ORC9iaEM4M2kxT0hNRHp0Wkorc2FvQXNHZ1diRnVvRWpmVzFvU3lHZzN3N3B6ODE2bUJVSnV2YmVjcTJGUjdGK1lNV1BYNC9LdE1salIvUnlCSno0PSIsImF1VCI6ImM0ZjE0ODU4LWJjZjMtNDVmNi1iODhlLWJjMGNkODk4NjJlMSIsImF1UCI6IjEyMTAwMDA1NDM3NTk2MzIxMSIsImNhdVQiOiJBSUJiR0t4RTd0azlTQ3pTellSV3RnNmhLamVCblBjaUkwME9mL3VQNkR6R1VmeWZKMmtJbUFFb0pNaGI2akl2aGVoMXJpU1JxM0tyQ0lpZlNMN3A4K2YyQ0hWemdhRDBTK3ZYSGVOMTcxZU0vL1NNZldsM01Mcm5pT1ZGaHJUVjUvemMxQjNrZmxsWnhRMThGMURnbXo0SzdzODRjYWcycElZbHhrU1dKY21NWldoRlJweGZreFRqODNIcjloa0JrQ2NJSGpxS2tsc1hXM1pqWVpsVTd5TFlwUVRHdThBTndJMHRxbmZRd3UzZmdza2JxZFJpazlkWG5kcndwKy8vNnZFPSIsInYiOiJWMiJ9.S_ZmNL-qIGivB3X9DmmvNw1SuimfkVCjjqVfyYOpUJuz34gF1iiZ11e8cNz1oaE2GmB2oK3_kAWx6WfBaLMDejtZArTqpzNlHiBQEIFnGEeuI3B3U0BKoViV9Ts5wEFlNoRVT8IWkP-ttClEFW6vOG9-WGntA3S9NXn9725L1Y1j-e3L5g9XHPdgv7BOvOq35RuzlxTKVc_cR5k5dn-U0esWDTY8qpSdhkRgbzXLG4rYBBnx1Fu1TXKioZM-VTrDtZi6UypAf6s0K0kKerWs9FH33TklJ7Ixbh6leXvNsqF6Mhe7Lqtsk_rL-XVYVU6p5TgeKHUZaEgdURNcI_vQtg"}]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Y_9uKv1lp5yLmcjRiWfYZd2N3Di2BjbxUaCQL9GDbiB7Ozgec2yEnQtYtzC3QR5trfMxL79mbPb2YUrkRhreHB3i1vxgvXH7yfGMUUvcf1z_daTdSoYj83sVp1fEFBEdwhA7vLbXoy_rkt5Y2OoiEyGeFhAhj5UegKoRFpjTehS8eWsvzRQvGRbk8glVboz3uAGrxSqzgyWfxJtuwYRHXjGQWTnwxq24TTD28ZmlaYZyfypzv4PWrTS1vgsrhn2ywhzocb-ac5RBqTZh5B8AKByHmEpuoHXan2EpJsEjdIm1arK9IJi5e7q7dXu8OFCgDL_p3FOM3Wdhj3tHCkHM_w.5o35LSpRpO2nj0IV.u0w8m_bL2rUN2pfzswB4IOPazz4QqodwxF_09pcdLo1aapZu-KFjC9Ed4J1w7iWfMQ3j8D52Ve5k9QAYj7JqkoHnp62yGnRupdqectzIq38jqR7xQcpvKphAmWH1Tr79n8YsP0tMPO1Tg4UbEKx7WtyI_b8m2z--MTn2fLXXS9kXUxZhUIxxfS8ZKZtqUCbj7XJIV-74E93u8Nn-g7qXAzce5MEfhMKrMlg28Ps.vfoJPcGxNhB3Qy38H7bKHQ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Je6HcCXjGwFEnQq_DRcKtb3OekftV3n7WUUFUVXHegN58yy317AVOXseWKIj9UgWarap3M3MJzmE_TPBFCFKNCHZVJFzHi4RvC-Qr8QNzq6QJallHAumaB4OjEEObiEOiH_f70LwMGBlo3GIqAx2-0o4eMQBgOCo7hPlPFcGBFOOW4EIW4_ClKDL9G2M3OoXyK_VJnHYGp9UneZnaXvRVh1NrIcK11Q-9QTU-U03SxfzfYZykJs_UfIlZBr0PkgJKfJxPi4XEDignC0WO3hrM9ss2BGKdImIVtka6JNn2rH7LO8qp5lGs57oxTIwa-XVYYSIQ3-XUIQiwGZl9iIANA.ImfghwskgixggUPF.WfJf26Evy7YJ1QCLfMRb6Un7KLWS3MjpMIgfZNajaxWfdhJVGDGln40fEnRK400XqJ20tgf0SajIIaDKXtmXwyIWJ_hUBI_-_aUysJbJbemJrUHHXytZ8IfhnPxrR_mNPhJbofpedFJNi4UabEl4FtMPfhpZewmOO-5J7lfB35r6d4qWR4raaelJR9mPcKwR7LtSI5t8xisGLEs4dU9-EtVIJdVa07n6P52jVind.zuCSP1jiuI9GRAeHn8IbOA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A121000054375963211</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4d7363b1-240f-45fb-a760-ce0680f68cce</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1C681C69-F28E-40D1-BFD3-D7C797F614EB</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hormater_0810@mail.ru</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0QDMx8Z57vpbFvmHZCnB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4YWRjNTdkOS1iMTg3LTRlNDctYmVkZC0zMjMwZjgyMmFlNTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NzkyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjUxYzg1NjI3LTQ3M2MtNGMxOC05MmVmLWIyMjdmNGJhNTdmOSIsImFuUCI6IjU3OTIxMzZjLTQzN2ItNGQxZi1hY2JkLWJlMTAwODIzNDA1ZCIsImFuVSI6IjEwMDAwMDAwNjI5MTMzMDgyNyIsImNhblAiOiJBSUFrRXkyMTlzSlVBcDk4UFNBeElaL2lMMHZpeGRjOHlTY05FSWl3U25aVWR0NmVNZkQ0S0VPUkhramlOak5nUlZpSmRGU0p1c0d4aXhWZExzWjF2RG03aFB5aW16MmpwRmJEV1lhTlI1Kzd6b0tDNldqckVSQ09NYVd3UE1JODVldko1RjZEbWQ5U0JlSW0ySmpzYmplcGdVUmJKdU04Vkg0TjY1bXdrd00wenVTS25mUTZ0SU1kcWR1a1RsUVR6UDk2dzVOUzFvSEEzZWN0RGIvSFJ0NTh2RGR1VGtKM2pPL0lpRG42bVRrZ1pmZ0FTVTE4aExrcjBVRGVGQ0lwMFpzPSIsImNhblQiOiJBSUEwS1FUQlgxZ2hnN1dIZ3E5OHZ0WkVvK3I0MXFyRnN5L09rMUtob3hBeHNLdVg3M1krdTludzd1L1pBTERPWXhJVVNUWTg1QVRUaEQ2ZWJmdUZBWlZrMGU2bS9BQU45RlhoeDdKNE5hWkovaFBLcm1zcW5hR1hRaFdITW5Cd2dqVkt2eU1rSXhUeStqZVJwY3l0bU1jMVBVc2c0QzgzeFVFTjU0M0FmampwRUZVUTZhRzNCY3p3N2lsaDlwelFqOTIzSk0ra3E5NndNNXppZGZ2WVQ2RnpFSW9aWGhscmZJcGFMbkdFaVJubHc5RVNxa1FJY0g1aUkxeTJqdWdrZDFjPSIsImF1VCI6IjVmMDMwZjIwLTAxZTgtNDUwOS1hYjU2LWE2ZTY1MTM1YzVlYyIsImF1UCI6IjEwMDAwMDAwNjI5MTMzMDgyNyIsImNhdVQiOiJBSUJzdWdyMVlvK0UzMnNVU1BBKy9oNkpFWVJEaGlSTHpIRnh5bWpGREplVnRnUVlzZllRMG14OG5odmM3ZUl2UXpUYlA0QzhYUVFISlZMT3k3MC9WS2ZLUkRldGczRDI1UVRsbWpnREdPR2ZjTnFBa2k0ZDQyWmtlQ2M3anVWZ2xoZ2VzZytRemFlaUdBQTRyWjFvOUk2Z2ZndlpQNlphMWx4U1ZtZkRYTVAzMmluT1BjQjVpNGxzeXI3TDVtbWdEMEowWGpCaG9hblZIUEpCUzRONHMxdkh0QjZzTVdUM2dQUWtBN2t0ejMwREllWVJ3V3dtQ293Q3kxVGpWUnkrTmE4PSIsInYiOiJWMiJ9.jv7Xft1WdZ9V69oaT-QPdw7hra2jXrN79iuEpb2ngV54KkJxzBpmvSr-FnUzsVJZmCqiavwqDxTRydZmXcc75FRSdzWbNOJLrtwKi6Tegf_ZmF4FCy_bpDomZjOOP9V-ABtiZSwyivgRnFA5SYxZsHFWdO3V1XmH_xmueVsR5zDoKBA2Y0gtADSNfiX5-1SEK2LPOyp1rVEi8CnBF8_pJ4ViRZXkanj6O3ASEtCGiQBGN-muJfu7Pn0JwQQm9iOCKFlCBoAK2AvHypYLxAl1tm11JT7NC8UgDywqVAmYiOrsLALKA587wNE-OMS_UFpygalIYu3ce75l-yyo45yysg"}]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.QULdLwFeeXD_bCPqaBPhVc3v-vSYwcrpnz8IwNAvO8tlKGSafof6WN5PO8kkrhFgLWwiU00EVBmKVINAkNHxO2OTNqAPalXrP3_ybf39tEwcOQ_rDrpuukxZchb4sPcHp7slhBBc4ALaZljhh6rVExsTaC5xuKnwVcbwRdicmIZFOX8g7Z1kpPhHiKIReRDyiqipFmxvLruRGJeOcTNx7FJUiON1ByNJlvrooTi2GgY_X4WDGuwNXs8ymVsfgvjh1R_dhQqHG4FQrrycKtw9RowlrDQds5Ii2Efi4xs6nLIYeDYX5b3FyyIX7IBgGS2KL-39GVOhraZOVOmP4wStMA.XGMEC93Oz1k8HoOa.yTNm_L111U-aG9QMwU1Un4CQ5SA5rWtJJj8DOeBjigo-DUMtgsNtZUVrZ8aKEy0o9exoRslpBxsIvRGrnLeIBUMEljy6Ulp7vrI8hvrHv73TBojhXi_HKcSKgCk_kevrW1HOu5HDIV0B9m5RyOPw9BidSQbOJRHxd51y5TnZ5BMV3cLZr3CRmTk53ZAOlKzVHMyCfYCOXvKPSUfu-kUf3cTmjy2fzlFKQWA6aJo.pA_5pb5kwrDP4y6JqQLD0Q</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.VxVp9gua7tfiZo5auY1QDYY-A-UGTJD1f3N1oQST-waTtsME1CFJSbACuRDinolU2SI2K522srLjn1hcg5HU5cIF_4YxWfNw0dQBpokebcFMq6O_OPEZx3knR5PZUy_U3HOTVn12UYl1UI6vdFV2TIM-P0iggY9CqjrnRUATWn3GkK2VPijP0iq7diCYbwrSt-vCf4vI6jJSyQ5-2BNa0Zci2O8X1u1aEx6hmx-8A2-khhCzakvXll8rGRjCp7oOHlG_LLBWG52KMkIMFzdggti4mtcz8gMKY9eZ44ZqOK7Rkf6UNKAljTcqAdAJotmn9OABu1AkipvbSIuF18ulcQ.zTCMT5PIMQkeRYit.z9AyPlfUQi_ebMIODbMpsy3T7zlw9BUfGCFXj3wFmSSSIVZgGaoHZTNhdTT9ECMcED26Sdpm1rtQc4Ekly1yT9zl2ZttWvYwd-gifp9f5q79DJBOJiLNYhQ2T5qYc7kZK-ogrmbyyhwGRqGGzbRBwBH59KdTqxEKXpjisMGREuF9JAdQNW8qINDEbmhNs6dXTF5mwm21eJUripB6LEkV7rUrB01R3RGuyI_MeHUS.9N14jzG4Y3jErVxGOkr75w</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A100000006291330827</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>b4f3cc9d-a440-47ff-afa6-f04582d31df5</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18A1083F-095E-4CF5-83BD-F8DFB1D9C37F</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>yaroslavaksenov88@mail.ru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c0VLrwWZZu4w7sSR1RM5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxYTM3NWMyNC1jNDc3LTQxMjgtYmRiOS03Zjk3YTc3Y2U1NmQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NzI5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjA3M2EwNjViLTZmZjEtNGM5MC1hNGNkLWE4Y2JjMzVjMTgyNCIsImFuUCI6ImNjOGVhMDUwLWE0YmQtNGVlZC04OTAwLWNiNGM5MWZiNmEzOCIsImFuVSI6IjEwMDAwMDAwNjI5MTMxODA5MyIsImNhblAiOiJBSUJ5dE5NbUdhc1dwazhCd2t2Q1Jud0VMZ0dwcjlEc0FmRWFobGdBOTdsYUQyT3N6OUdRRGVFU3ltODl0YlRtaGtGL2xWanlWQ2l0elIvSk5qUGFPTTZVaDBzUnBhNWZxdE9aSTcvZmlmQnpNSGJsTm5acXgwNnVwYnFkdWhmQjNBSXM4Vm1MNk1mYmxrb25CbllZdVBmbHplR0pkeW1oWFFRZDdhREZUQXQyY3UzRmhKRXNYMTh3aWZGNTR6TkgyRGcrTVAzdmJVSGtLWVFhQytxM2Z1SXV1UXZnTmlWcEFsaUdNaGhaakt3WUt6UUdNbTBpejd6MUMwZHBWdGpnR1lNPSIsImNhblQiOiJBSUFCSEN6eUVyTHQ2UFF4UWNFdlF5N2RjRVRWUnBHMWZDendGRGM4cFNhNXhMcm04ei9xVHNIN1RSek5RV3lHRENQVC83TDBvRzBwcXMwa240S3M5eHpndjF0WjlaM2VNOGF6RzdMdXRFWmZ3MHA4U0I1TUljbVFsRDRQU3BpVG9lMjlST1J6OWF0QUNyR2loSFdyY2d5Ukw4WElZNlhtRmdSOVkwTFloYlo1ZzI5Qkh4WGhoM2Q1cVQwQTBUdncyMVNScDRVR0N2RWI5bThWTVl4NXlRazhEa1UwY3Qrc1Y4Y3dJNXVUZmJ5aEtsU203akRPVlVkV0UwdHFIZy9lMmFjPSIsImF1VCI6IjFhNGQxNjE5LTJjZTgtNDcxNC1hMzVmLTRkYTc2NzdmZTg0YSIsImF1UCI6IjEwMDAwMDAwNjI5MTMxODA5MyIsImNhdVQiOiJBSUJZd2VITlF6SCtLb1F3eWtYbXFQUkpSVDJLVzBOLytZUWl2Sng1enc4c3pNZC9kYzJhekxiUjlvMzZBUHg3UmdMMHZaenBnaE8wRDkyd3FiRjdrMllvaUg2TVczRkpWb0syYU5Jd0Rod2w0WXI3WktvUXRKbDRMai9ZWU1ldkN1Y28rMXdYR0Q1N3lIc1RNbmlXZWZJSHFUdTlPV2pkaFZXRnAzZE1YaHlBYURBcWhrWjNaY2ZURG11TDJ0RHFPSENIVVVIcExmRlNFaDU2WGVweTJSem5wTDlGTTYwU2E2M3A5OWlKSi8ybHhKdVg4SmpacUlpQSt3YUhTZ1F5cnNjPSIsInYiOiJWMiJ9.AJPR3jCAKlYhnnkLzeHlsZKfML1PWd8fIPw7ZwxNIVApFZPzFFh8XJPg3eQJ0qkJNV7qfBgYmU2aAUCGuRSMPDtkaHUHzmW2Aq2oyCQKImowvokdmVC2BorAnxTR-83axWtAijJvDvJR-FXdpdkNSeYh9VJ1nSJ0fwHowuIypL4IlBio-7NJn2fFTK2wHXwcPvPN5JZNesE7jcmT7Mv-Ix8mWBPi_i4aCJks2HVy2eB_GHCpsSsLms8P3DsiN-Vekwu1n8Oj9vQ3XFgbzGgDGMlSr2ixb_BnqhGci20bmLHssElDpn0LPLSG9ojss4-sTeUenKCpFUistj4oBOfLiQ"}]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JJ8gQZG2CLG4IhwEsKZzA4xwWGd6osXm9og2dL0qwxmhoMoluGf4IMb7Z3IUnlLHwEHXjwB3O6bgm8nxg3gTu_E_Y6Z9hlGUjfEZQMxErHG2j0sbHM_Hat9anu5vma5CAcvfcTM_WOqyNCqYVQ9EyHyjd1DvTL27hOaDCoxbGEyXISz-kRl2nVI8Rumacva3_rw8q03LUtyhOv-ccGC_OOpf9CfzgQG_30mCAclLtfWqlCU5ajlBJWiO2qeA7e9PDADddGuSGP1-Qv1HMEIhTeDeUWtxbXeCuKoquoCB_pTG8n_KLP0TenqUhA0NLUn_lR34YemvSQEJIiCUmAdazg.1ZvwtXfe92kv5nYR.6YNbty5iGEE-6FV1xqqayRwABrQHIXSEyE2PX6P277wyf_4eD4Dx-WgDo4jXT5cLmr5zNfaj3VYCuNEc2f9EhX-vhB30f2jzitV-GkhNzbMl-12O11S8LaUJkxwv1KY_L7OTyGp19qsg1zdGbByDgNqKeuKCQ5WAzMHrdLjRYc22HVLkBptI3ldEa9SmKqT4cRiNQ3NHxNDyw6lQ87fq_2PvIE9c0tZqip1MKtk.VTQqiEgLKYVSjES31OCD1A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TG5wYXFNskZZtcivP2SSb5N-CUXKk1FWnPT0d0-x63tuuIliFV2KYmGxlvy4lvsvBex0OSicQ-pBRs1jZvVEW1xPF5OeyaRj0lSbu_emvjQzMORFU3yW6BqWkuMb1pSEtwsEbIubjNAybQ3P73lawPG_HUMfsp5VCugr6Dr1yHdPc9Agp8_mHImW7LjxsjUzNCI3hsWlAO35UTGkQ3vyA0THqIB8CiWMT_Cgd8Zhx1QezogqlKvt33201Vx04vapGhxbtKwwc5xB3BCTTF4QDjtBXg6pVLq-2-dzgEhsM9ojJtZwZCwmmYRtgKcBS74A0QpdqscAXmYIHR61lXeT9g.YOs7odlm2o1yG-yX.CXJ3CHceOtK695Dyg431AM6Jbh8fFzL_X3syq_NqQOFAcSOe6sOJ0QBNDryc7uIbNm4KrOz6FeAZslNaozfNs1ZfKmuFiBYm-b6LlEP0xylHU6TchTOAX4X02jG5Xe5RSEH1FMtxk5Y4tvaa14o0NX2H8yUCgebkOxVhTCBjUYv_h1XouM0mLEUYaWgmbJKHuuywgEufkig-TLoNPTsn2ckyDyYlag_OAyTLwJ9b.Ss8o0dXp7MPeSpKSpmPh9A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A100000006291318093</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>41349fce-386c-4e09-99cf-660b58e5528b</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0E838108-4B87-4A1A-B763-DE960E04F36A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ivantu0mor@mail.ru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tVVtuKrAVcq27eL6U5sR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhYTk0OGJiYy01ODViLTRhNjEtYWQwZi1lNWQyMjMyOGEyMGUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1Njg1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImM1Mzg1ZDVlLTExYWEtNGQzMy04OTI4LWUyYzhiYWRkYTk2OCIsImFuUCI6IjBlMTViNDA5LTM0MTQtNGFkMC04ZDA4LWU5MDI1OWM1OTkzZSIsImFuVSI6IjEwMDAwMDAwNjI5MTMxMDQ2MyIsImNhblAiOiJBSUEySG0vekN5WnJ4QlhJdkR3U1dtUzhFcWJ0YlFOamxMNDRqZzdGK2RaZ1Fpenl5RHA2Yk5Td3pCM2VLVzlzRHZFbEVKYXl1SUE2STgrVWJLbXViTTdjNkNrZnh6QnJTM2s2YkFNMVJpeFF3bVE0T055dGgwY0YzakcwcVUzUDBtMXNFL253RGxoYWpzZ1dlU0dpV1k5elloWDArMkd2MXlxa1c4ekd0L0tkaXY4NEYwekVoSVh0bE1NcURwcTNnVXRnOFJ3UXdDWG5iMldBVTJVNEtja29pSmFwSnNmS0h3VXRiY0lKRVM0TERpRWNmMDdiQmFqM09MYnJkNGNpejMwPSIsImNhblQiOiJBSUExK3NhVHQvaEZScDd4eUlhbHE3OW9OUkYybVVsaDU0UkMwVm5GNkwwMk01TFFIWlNicjZFUFkyUndCTm1mQzhRQWRmVWZKdVlmRVJ1NnNHcHRhempNbSs2SWtkSGVleW1Gdyt6TG5zdG05eGIwWmgzNVp4Q0F2bTVvdkNsajBUM05GVVRrQllzVmROMW1jMEVseGNycTFUVTR6Vnd6SldtMURpL0VJblFHaTZVcEEvWkdTWUoraGJYN0NBczJCYldTVFhMT01VNUk3Lzk2ZGRqUEJTY0k3K0p5c0p1Z0NwNWcwWFA1bUtDMFN5eTBkM21LSE1PTXRMVkxoanNBU1dZPSIsImF1VCI6ImEwMmZkNGFjLTg1MTQtNDViYy04YmY3LWFkYTQyYmE4OGM4YyIsImF1UCI6IjEwMDAwMDAwNjI5MTMxMDQ2MyIsImNhdVQiOiJBSUIvTnN6a1BhbHFwc1k2YjhVTXdYM3FHa3B1dVM0QzNDeGc4UHV0c2VRblBjbk1LZVdJSHBpRWhzNEtsT2krOWhFb3BZdzhmRkFiOTVjTGNNdC9iZWNqWDdUcER0aFVza2JVdjRBcU9NM0ZvRkZhbGN5clROR1RrR3NJcm5xU250KzI1ZUwzRHNzN0tGcitZQ0FCN0JvWk0wdEx4dzVaRjljNGxuOE1JOGZuamhwSkxkY3plS042QnBQQ2RZamY2dTZnL0FRVVZDUmJob2dYRXRjR0FybEQvSG1kOVhqQjk2N3dndlovUFBYYUFTZUxuSGVHVVMvWXlEdmFvbHRXMHlrPSIsInYiOiJWMiJ9.rjQYKNIEBLnFVhoyhmc4JIiKXJFHkOi9dFrgRI5bP-jV5lnnhnlxq5uWJHV4gQZU5haKvY6fv-QBWOxlPSVIPlynu-Q_1jPk32b6phWNRVpWnjWEbQPkFymjb_D2P1bgCGzMdy4YhAbnnxV0v2kvbozhWHKcLpFkOHTBYnK3597DHT9iQxWsQTkI2DeGSxx_S90baIs8ID4w7vUP-P7LSURZO6qVR3lcIM87PB6mV5a4XXPftJMIfDyLug6AzPVapsucw2Wq46YgNzEt-Zv_3ShFIuyjtMjJjauqJX5FmhQWHbd8SgeU2-vVskSqaAkTNymey4Gt2nRJujS__mHeaA"}]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.WSv-aQ2wOohXPi-NIfzpLKaoljia9XVB3qyXvE2T7RXdOpVmhL5vKtc2IaIAVZD_P9D4jJKMgWNw53PTm7N84jH2NI_yk0QA2495L4_E54HBtpKmHliuqS6lnR7JES1sjYGN7moXeiaG7L1GJvl1G1n6iDE3pvTMb_fSUnOSn2jyaMMB50NFoMJwFjr5Zn1rEJRcvAa9gWbekfX6CqgtCL9UKNAqio9sZ4eZMJWidxBYk2aYnHgF1muQ0SHK2sxYZtV2Ddt84BTnj9c7E5KZ0YbjkkaoXclKXvSMPIn-1XoRQnuoXdEHsB8icfocXyX_bLHi-L1_OCwUJXo01ZTv6w._EsnyWZAViAodiAK.x2EW6uVTFMmSxVl6T1pB-CsCyPYieECR5WAGvjjNRMqnk7RbQ7vR2GkVLjgzCsVcwMLnylhE5OUPE_WNMCaFqJQNFrH-1bd42lCE9Ou5WqvXqEr3wP1yuhV8B1T-AYUL5aighO0ZEwTkruvoHTTYAvkT4n0GsejbcGjm97FlWSHBDmxHM-Cs35rbxvbKvA9klbOImgp4g3KadF6A38vgyfsev499Dkw2M0TpQNQ.49nTru4PJ7OdYHlcewHPtw</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.CCZx0kr3NWet4ZpAF1a5MMi7u5tjYGGkaGR0w4sb8yZsKVNZdGATbj8K0vNf4cMOdbCbCijA3m5ULeGelHeyBga7r2GqM_0imaZGUPKFdJ27vbY-hP3kpgQ0Ex9DbNktOoNFg1xZwQtbGwhtGdZpaWOQLgkXUVNWncQMPVhi1_ykTdM9vBaC9UaLO0YAbyjHzwBKS86P6PDS_DAXvRFL94OQ9b9rbyCUbXTNXazRqP0pg-cdh3lokJFEVIaXNhDvjutf-obZp2JfwapbFi9JngesWDyUzkm8qZKu-ZYFHT72WTrZRG75L1cs4TIkaK2zmN56CIPTTNvXgtIVwr0pSQ.oXlVF57MC5DWIlzx.wyVdBog0-Gwp0QrLvT3ANRRdN8cfzMUFUo-yDKcv9Ms8HuEm8tAbQP8ctnlia4jiCoEJt1Ftf5ZIXbAe7fa6VPkIjw9cJzs020SS_3J5_CCrLlVF0DNTfprePsJa_Ufcnzb5XN2aZS9Ti6unEev5rcuZatWxwnHmiWrD0qSqp4U9YGT_mW_9VEqUziip95NUH3f-s5OgXSsfUkbGxa0_0FHwKWz2P_GcI_JH0z2Q.uQBWjshvq17epMFiJWoFmg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A100000006291310463</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>b8999f48-a56d-4877-89c6-394321590d91</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D3FC9582-7798-46F5-A66D-7C1374D8CCAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>timothywilkerson97544@mail.ru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gHgkvCb7nwTdwcGsAdSb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxYmM5YWZlZS00ODk2LTRkOGUtYmE3ZC1mMjA0NjQxNWU1ZjAiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NDA4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImY3NGNlMWFiLTdlNmMtNDljNC1hMjRjLWFjYWJiYTBkMWE5MCIsImFuUCI6ImNhYzJiNmIwLTcwMjgtNDg5Yy1iZGIzLTk4MTYzYzViNjYwYiIsImFuVSI6IjEwMDAwMDAwNjI5MDE0OTE3MyIsImNhblAiOiJBSUJvaC9hUFRsbUVVNnFzUE5PNmwvRVg5R0IwYkZhclh3VCtDKzRraFU3NlVnaEwyY3pic0tRU1VVQ0tKc3BHczFXWHhIUDBOSUlMNVJscWJtUkxablpyRFRSNFp0VGdxaWwwdFZ5WGdSL2lKRmVoMUxGRmNUMjZNcmt3dkl0VGszdW1ManpSQ1FNbVphZDlsdExQVEVKN3l1NWZuWlZLL2pOUGVXUDdERzF1b2ZqNG9jck9xODYzQVhXcTJXRjV3QTFGZ2t1TWZQZWRJd2MwdHJVcGIrbHZLUU8wQ1B1bnVoQzhqUXVVY3JBdDdaOWU5NWRHeXFCSUtSZVZtRnNwcVZFPSIsImNhblQiOiJBSUFpb2lVdm5QL3hzZHpuZ1piY3lZbmNsbW12QlY2Nk5iWVRCT0RHNzh6bjdLbFUvdXJHSHNKUTZFdVY5eGk2N1ZFRXVweDhUL2tkRFc2b3o0UmlpK1FQU3pyVHFIQUVXUUU2L2QrYXJQTTIvdy9sK3JVUzlaRUROeVFLZXlJaXovUlJoZ0w4OW5tdGZkUUF6SnM4TG5SZTVHMmZGd3JuMHV0TEoraS9XSkF2cXBSMUVBY1JqSFhTQm5UZk5lZWN4eGt2dkV2WEtFTXo4VnZmN3l0akN5cjBLekZBaXBkcUVFcmpWUUhLRWZlQ0k5dmluTjRITWVwQjdjdFJHUWRSMzc4PSIsImF1VCI6IjExZGFkYzY1LTI2YjgtNGZjNy05MjZiLTk3ZjhmZWI1ZjBhMCIsImF1UCI6IjEwMDAwMDAwNjI5MDE0OTE3MyIsImNhdVQiOiJBSUE4QlkvTUMwRTltNkVoVU54YzgxQk5HdGlvRThESFJwakN2K2t2NFZPeVNEaHpaRmVvSHV2QUFLQmpCTWdJcFVBbmJOQ3d3THpNVUJsQnJtZ2EzbEFjWjVOdTh1QW41Tlp5QW84Yk5YRnpjMnVmNDNJR3BoRkRwbVhuQ1VLTnkvM2lzZ1F2NG1aTXF2OHBFRVAyeEpUc0F0QUJyRXVGa1pJdzJlaENKTGhKdVU3cTAwYlhnb0hDNU5na0xzR2VtMmdGQ1JnOU9KNDUyalJWQkdRSnUySjJncG9mYWVYNkFPY2tESHBtYlordVovY1ZPazBwS3NIblBQbVVqK3BzS3FRPSIsInYiOiJWMiJ9.ffMm0o_yHow5Fe7nfMaV3RkK8F45wQ4yX9OKP7fdzVm7g4WwFaObXwRSpqG2HeKzpsT2Ix_IB0lJma6OzPHVK8g0jOA2oUuoGcZVK8j9KHmp1FBS5jdljSImUO1m_AqJ5m_XcjX87bvGPtDhCbXuZCGvuMMWjdtxqmhnMNf4pD7-_6fUYn-68iIy1h5Sh_VVsbECb6iQnEjSbmWmYOrSd_SQR4Ilr66vpjpgHBKqOjWjk8pWc46zWPQVGxRuUFd31GRTLqnHFxa6wEElQEBJKG2TTH57gADlVEvEcrbiAeWTjCXDEMiZZQUWe8eAxMWeiWhgHr1D2CZm7kwaeKtqiQ"}]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.RMfHipeEBXTzKxVN8mlxjYSCeOlDjUcZEzK0alVcnr_RFdfJKU9gHhnGN18WN-Mr3XsxCB6IkqwCYxDma7ucTZXV4LRh-I2Y4Y-ObUumpzR4USPGDMa4I4XMm1idyYTqhT4ElbolXU5dXsQ5D39C9KXjxja8BEEACqLfLsv1aLzMMLmGja8VYxrBzk5ham-AxP3fzcQQYaoaJhlxqxMTmxYhRXLEqHnGakg8jTLzADbsCy5YOYyTvFV0BLLql_K25MpEUlwGGpom7Xi2kKnsiyWekiQepQhXaG9fKqArb0S00FxUg4LosyI_BTJqtj5ymhoXokH-SV5HBWGaETozmA.lW2qXr0C77k2SpK0.PEmkad-wQN1CMrP01V9ITscBCXSsYuVeqbTJsi8DC-4G6i3cdgH3qqGVEUfkctkCiwzBQ-YyaD6XoTQq3hH_oXz5esycrQODOP2R2R-eyJ5drjYyL84gxaBwtX4rGNy4AZOF0VnJrDzwrA18CVh7YtMzwgknURRF7tn23z4FgVq-1EiWeaIpCC-BogVJxQ_zCw5i5KZ9HNLW8ZkvK8j-Rh7nF93Kudhg84SII8s.PnW0aYJIRpI2NCEWJS8_5w</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MAZlTetojhy4OCQXdJ7Ukq5kha6B1tweSPgLDM9T-dMfI1J2shiuNdzQwQPuXHjenQukqJN4PiB8i8vD3vjo5G0mNni1CP4mzRTxTDmf6QMlsJw9yb1-XD4rjesxEnmyrvbRfzvAodVTR2k7AzuoB2A7KvXdxT1XITLro8VVzKovwHVDOnC_v9MR6soRQSIXYj8GduD-eeehz3KCWYP-n323PLRCbLxz25YafTb8GvVLWZEdtdZIospzzeTheVQz5C9iCYx4kJQaUxDtmwP_RRwgqaer8RoFz9hA1A-vCMgEJxpf1sn1Su_LVcfVEM5eocCJLIDfh5gxuMBJai76OQ.tHsCtmjezMeGugNh.qhnFgI2zCOMtF7ZhWhMs02ACd5ZGIDrYZAEfOV-gL8vblDL4fq16Q4jc5GX4cB5hZTBIkNnNGrO_g5QGFfxIrKfzUOnfz_IZtvLxVldDvcgrp2tCGvi8cIFRcfUOGTk15z20-DUtX3s7cevkXQ64ZCy7pwVTk-S78r0IHelO-LTWgtZWGL4VX8rnw-RxClfyaGXwd7WphqhGpF99NJhG5oEs73tXW7jWMeY0fmor.g6g4Rab9KBlwJKraX6xPNQ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A100000006290149173</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>d4970dd0-efac-4c7a-bacd-e278aab42a97</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4B2253E4-B6BD-4B9A-A766-169E8157FB35</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>viovecrue-03@mail.ru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>YU9rmSrU8jzM34dcysDv</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJiNTYwNDRhNy1jZGJlLTQxZGQtYjZmYS1jY2FlYmJmZWM1M2EiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NDE4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImQ2OTdkZGQyLWY0NGEtNDk4OS04MWIzLWEzNmM4YWU3ZTM0NiIsImFuUCI6ImI2NTY0ODY5LWEzNWMtNGMzZi1hNzk0LTM4NjFkY2VhZTM1YSIsImFuVSI6IjEwMDAwMDAwNjI5MDE1MTQ2NyIsImNhblAiOiJBSUE5SHNLdDVtUkVCSlV1ajRYMjJGZnFJN3lZOUt5WVFGeWVxbVJvY3FYbXZXM1dFSWNzTTJVY1pZMjBmUy85MDBnZ3NGVmdxZkc3eFdHQU5uQ1VQdkNEcnhlR1ZEWnRYczRhYzVCWnE4NkxxeG5hdFlVNnVhUmJLRFJCa2JHMHYxWDZENkFoM0s2TU84MklaOHd1K2lJZ2kvblQ5cjkwdGowOEp1RTZRYWlnVno5V0ZmbElMeWk0SFNwZ1IwSUl6ODQ0NDRCRnZGNzdwdGpqY0s0c1laYWUwaEtWeEtnWTltSGhpQ0tNVkhGaUQxOE1vSllBaExzMnljcXRzTzRvOTFFPSIsImNhblQiOiJBSUFHMGpaRjc1bThwRjYyNmFuWURIZWtZRURtK293Mzc4QUFBa1BiRW1ZT0Z4S2xGQVErSXNDL1JhY3p3RDNWTW9TV25TRGc0Y1dKb2VORzVkMDZXUUNnMHRzOTY3NnNnaTZFU1o5YzdSNC9yQ0tISlMwakppYTU5SWZYOXE5WE9Jcmt2S2tXZEJyOGpuWGpFOWwzNFk4L01hSCs0ekdIU2dNZGt0T2Zpd085MFJCRENib0pHTVRUM1QyMitMRVJTdXpET3Y0WkRlRjQ2SDkzanliZE9kZG43R2ZCWUFBclBxYXVIQkh0ZDBqdStiY1MrMFRqZ2NuTzNTNFdLZ3N2UVVvPSIsImF1VCI6IjE3MTYzYTNiLThmMTgtNGZmZi1iOTM5LWE4NzkxMjRhZTc4YyIsImF1UCI6IjEwMDAwMDAwNjI5MDE1MTQ2NyIsImNhdVQiOiJBSUFmWVRSazNrVExSU0R0SUc1WlNvNU54L1NLdmMvN3Q5Y1JWTmRJQ3ltK1kzWmJPZXVKUHEybFBrS3c2SW96N3RuQVZ1a1VQelIyVkd3YTRjQVlhemZxUXdGUVJHNEdhd3Z2bHVKNlNKakg1dmk0anAvWmx6TVl4Q0ZjWFJ3NE5id1piT1FXS2twNDY0Wm5TZ3BvNnlNdE15STcvRWpOYXRxK2k0bWtEalZzWUtxbGU3YS9admhTK21TcjhFYXZDaFFNckRFKzB0WEk2SGc1SFp2SzdQY2R3VmNWK0tsaTg4SCtNeVJJSXI3Q0Y3aHJjLzR4RU9aMERPM1QwRGtrQ1pnPSIsInYiOiJWMiJ9.r1gTv6FX8rj327KUf-c6s86yRcikySd6_ndWE9LBwXA8QLAlAe-JQH-ST616uBOuDaSKpkMWbRN063A2GzphYlhdE8sCKO17NW3t_mWJ2bV6_0FIdAAQyLQNlg8WWBI5UIUa-8eUNZePBO0dgBOtWeFL7MUCQi0ZORRFkU9MDu0GpJGmI4oXB8G6dekQt7DSnw1KA8qKej85jC1c7zqLeqPVyBkdgrro8LH42rVYL3GwxF-ac3P7xEtLfz5J_GibML3OxpVGroO46_e2L8VL6bkGFoqUJgjQg8J4pDmS_PNQoZUXFR2NAPAQPQs7pgQ8-iM3uqV-Glnun7fm9UMWhA"}]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MzSQydtjLoMblG_PWnOSljbdQADK6GMgc1c8zq1v95rGAuDZ4h0CnY-38ec_ePQ5o2C9Nka07LH4zvG9VewX6ErhxFAwC28xMKttUOIB4FWvQVpuLwF0zRDqpiqEkL6GSkwJZqw_MbZnPCdRyjisteKEhQt7F5CCSLDci2i4WfV4t2uVbye_ZmYSNEciyqhcXfABAa7Zs0ZYUmvVK4XP2ULRbEk15fwSOEMpW5AmwZAWGwaWd2uyjTwcwct_FU9BxlikDqSYkKScU5M5_Zfhgzjc84CVJQYkl5-33ji0JHT9FNvULtWUrOJSdnTEDLeyeY8IMGr9gcO-R-QSDrDCJw.BPQkVL-1CW8Ex4Ob.auXEGY2fr1X_tWfSjcSWHZLvjIcqfAmIrMTceUJ_-7igy5GfiN_BMB3bbeS9081it-uB6nk4c3LHr110pw_9wxfZ5YFB9E8mFU4SYI84ZWODl5O-M_t0h5epIGjlN0oMQcert-7vsWpn79CyV58de4saufTJDZhR5Xu4Lxk74GYUFLCZjTZ7rn8ZsA3UajXVOw1d0geZTAqcvgbj7sQ2v_jle0MdJ6AiPUDZgc8.o1e1HBVCKW-HwDQn5em4tg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.K_l9EJBvpTs9JZiE3qpAkMefbRsqkZi2INntjg-MM4WLtXrK-ob3HEDXQ7m3ijF7G38g3RLfX-5yOedCXPzW4h544Henzk6X5tcj13zwFVh8Uvjkv0GrXUIBqPlHvYhi2IsrD6OJdJZNywyAZLw39DCaQYOTw5ANcrr_oheMUjgJ__fNjnX9zwqpwHPp3iBgf175Hn6s8BK6s9CnBKcoWUvaxvn6P7IZhr6wUAtrfLH0Gvo4f3Ntnc48kCN484qVsTxAh4LwZPl0LviQV7erITFTNL3gIR2e45QphpNvWRv8ODgdH7Cm3tvQFsj-xyRfRcciI-t8vxbY-xtVmWrSug.0aYDD_NzdpaznBuh.m9nxblMt2NpUMnpfqPeFLaSPtO7hOkL2hbICygYytgaxHWd7s07UcXN6iM8pZSOpdNS21RUVmvMOPqMnxMwK3We2JY7JYN7wjP83KZHyX3u9XUKPJuhxzKCJcLSJ1Gz6nRw3uf8yDsH1zRZO5Q0_so7zO97njwN-i4p-YqxtyMUK3eMHB80AZPnkHDZMPJ0yoaJnGi0WBl0EKONb8A9-z51q0C9b9JnJdzOa9mxT.57yg7GwgNdU_aR6tY_BwQQ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A100000006290151467</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fa6ce2ec-1eca-4287-aba6-0501046258e3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>79907C6E-94EF-48A3-A680-CEC26DAB189E</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>comlamagli1976@mail.ru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SWbwF6CzK4ZGQYjwPt7T</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0OTg5ZDdiZC1iNzI0LTQ4ZWQtYmJjOC0xZjIyZDY0NTFjMjUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NzcyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQ0MmZjNWVjLTY0MWYtNDA4OC05OGY0LWE1Y2M5ZGE4N2U4MSIsImFuUCI6IjliZTVhM2JiLTg4ZmItNGFiYS05MDE2LTkzYzVkODMyMDFjNCIsImFuVSI6IjEwMDAwMDAwNjI5MDE5ODIwNiIsImNhblAiOiJBSUJrRkxLemdJWGZ3M014aEl4dUw0WFVLMlBCNGRFaTc2TjdLeTluQk5pajhvaHBqR3ArM0dYSEs0enp2TGpjT2ZTU3JwYWpkVnEyUlpJdEpGR00xUGVKM1RoempxOUN0OEJTVkhJR25RZWw5VXNDZGJoeW1xSXZVVWZ0VGVRZkNrNEhjU3Q4ZDB5dmlMa09DLzFJZURDbXhFNTkwZ2c2UHJJODg1MndCSkFXYkU0SWtRRTU3cnlleXlLR2VqWnduM083c2NoQkZxemFtSk5wcjRLOFZCLzh1WjI4NmNPZ0VMdW1YVkZLay9wd2FOWEtubmM1MUlRVVBGRFU4NnJxdEU0PSIsImNhblQiOiJBSUJGYVdORzd1STVKOHMydXFla0o1SUxFVnNTbi9lL3E1b2xVZG9Dbm4xNnZXbFUzNTVZeVVCdzlydVRBTzJzNmJzbTROZ1ZhblpNS2RDa0xXdTI2bzhCWGxYZlhYbGtIZmhoZmJOVlBjdnoxTCtWaWJidi8rb0toUTRCaHlHNCszTndkOXdHOE5DWDlKeUZNclAzcUZnK01HNWR2RGVvaTYrLzg1bHVnYlBKSm5yRWhablAxcWhORFNsVHFQMUpJOGFaSHFMZVFEMXVQanBBbVBYUGIzMGRtaFQ4TWVoOUQ0bkxYRXhSNXpmczJWcjJuL1pHRU04djRaaGNlaUphaklVPSIsImF1VCI6ImVmMGI4YjFhLTg2ODQtNDljOS1hZWQxLTRmMjE4YWQyNTkwZiIsImF1UCI6IjEwMDAwMDAwNjI5MDE5ODIwNiIsImNhdVQiOiJBSUJ6S05ZczVKUWlOZE9iVTlyNzdyTmJuMERoekZVVHNBbGdYUmc0aEpSOU5ud3B1M3g4c3ZlbHkvbmUzNCtZYXpDeWJtUGNQV0ZoUG5OMHQzajdXdFBrZWNJQlJtZ29NY2Nlbi9YTDZ1bGgvTkZqdGg2SVB4Q3lkcmUxV3E1Q2Z6WWJFbytsTDU4NTdZamRCUTBVc1ZwNnFKcGJJbEx1ZUhJQ3F0ZnhrRjR5K1M2amVDYlZTWG1GSVVoZGw3eUo5SHRYd0h6Y3FUa09sOUI0VFp6bCs0MnpualZleldwR2l6REdscGRFWjdqdXI5NzgzWFZaWG1zUk16QVNQa2Rjd25ZPSIsInYiOiJWMiJ9.Z2MIxq2BJ3Uf6z4xIVUImo1ff5Kzp5CZmAi5Dh6cqEyVuQqlEwK5QkEBNie9fEbGEcjmJZ7fqvuxLVPxL283ptdHs249z8tDkFv20yRSIrpqQ3I1ruMJIV6GD13uKTokH_Tx2suQUyHyGj-FpdzfEo8nLpGG5dYv39QBj1KU69i3r5yUyOhzbkQtvzLSBic9YNXaWudKMSBvKhrGCF-PDfsr9GqqryOnn5hGwamEi6q4pe45IL3oiTorPQOLri4z0CZJkqxe9VwCFZaySdr00HXibhDmhyp28yGzLgWDYVjBKK7Y2kRkiR1rfr_E0wXB_NZ5EI5X8G3BsQCLcc0NuQ"}]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.NjtkFWuQm6R4eJuAXMZWZfk9KHYXgiyGEoVIHgDNhKIjGqRWXkgtIb5iTFlnNLUjJlUbBuINV8G4_aMNQtd2N1ECpWj4ShTrOnceuJP_cKvY_PoymISbayClKNTXhqBccHq8gT-HlXCE83YB6uuIz53xVn-CRM3BNv40839ayMbGcZo4bOP1kaWXR9TQ2UWBc9mE2mDTBRHSeRCbmbglYzWMiJd8f3ulBKlqcq_Fy5DKmeMnXArHqmSACcHFOK7ojbb2_6OH37N3X92SZbsIzBZ_kaWyTCWBkugETNNvee4W_c4VZdDyRfplXY0yENaJ-1dt_aFcCq31L8BFwMq4yw.h6RpUOjIBdGMxIvI.nutZWaHxKSDhOhDIARINsn0-DJuO6oL5hBemW_5VmZ-lj949ZdHRh5MUEzqIjAXyBkZlF-9jkQFXiGswrCbaYDVZXQGgxPprS49SqSLfqTambws785iR1hTVKmevhgpPE89TWl9-XpXPqVvGLPOokU9SQKCoGIinVqcXn0JCCfAJzpl8eF2SY96U7EtBVIrszMmLI2j_9X0ZRu7fPm5kt83KmKuW0fXh-xX-8JE.22pS35w_c_J6r1ZhOdBvow</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MmN5l4uCngnsZZLqT9zzubeGTp5fTH1pPdKhdt1mRNR1JLc4dqJr2r5dYejeWb7r7dZIcAFgAP-SH1-N5o8Ol4cea0lmkFOuUME-H8s5K8-mi4vmnY4AERYYx6YNntXYncEuEiC0RAFe5mzpRElW7e9InR1tNqiEmwVp1wVHS1w_uCYpvdw3MNqCHaTEcS_5OUxZ_9uqDaWDt5y74XP8LdGTKTRVM5UrrLW_6ZELv7Gl66Gp6L4l2Q7J4BsfDLuziOa_r9T09sMV_m_4IQtlQodJXMWj6D0w1Afw7CM5MECu69-5-WKBwd81WrfxwI5mDvx7kb_DXFLRopWZ9sFLGQ.bac-l5AEe_e6jRM-.DxbubXBZDoU8XOdspk9b7yT_AYVnzwWPqJ9lzUlEnQ4oAblQx3GSlHzTF06qapFyWWDgglIFo2B2rADnMAw76YEiUC42YuqSgDKTdQZkYM5JOXQ30Htx58ILn1qH6Us83HYqYvSLiB30gH4rmKS9fBwrm8us33IuDRY_0o8v6bV8bVQYxe4_ilddKudmcTVtbZF2prooubhN6Dpzuo8eucowI78E0bEsKN1wBA_o.KGb2-dAKQAPygXLilK35TQ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A100000006290198206</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1aeca378-c50a-4278-9702-24d2c180183c</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7AF0D7B1-5E5F-437E-A723-9E5FC11AC7C5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>exilcom-12@mail.ru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EJdvsxqPFp2fY3i7dtF5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhODE3YjQ5NC00YTUwLTQ1ZDktYTQ3NC1kNzk3NDdjODM4YTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NTA1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImUyNzZkNWY0LTg1OTgtNGM4Yy05MjIzLTliNmFmMGQ1ZWIyYyIsImFuUCI6ImM5MTgwZmZlLWFjMjctNDg1Ny1hOGNjLWM3ZjQzNWU5MzU5MSIsImFuVSI6IjEwMDAwMDAwNjI5MDE2MzM3MSIsImNhblAiOiJBSUFKVGNCV01xYS9qZ3F4Z1QxcmlIWHhINnJiZ0JXYTcrZk9vN0JTcnZBanVxd05GT2ZNTVcvWHlYRGJqd1Rmd2FoQ3dVakRDZmZkZkYyMFQ0SU8wYlZNelppMGlIUks2WENnTXlQSk1NVWR0aUo4bDEwRUg4ak1yL1ZNejBoakhybTVtSVBxeXExZXVpbCs3NVJBZG4rYlJwdEtjL0p5czVLVS9sUUxidzJYaE1Ic3BJWXAwU1JQYnFJRG1DU0s0cFY3RG44b2Y5QzNFb3c3SENwdWxzRmpXTzBMQlZmT1gxOTZ6RThOYmp4bFExcG80bWhxYlZuNEs0MzhyekhjaDZBPSIsImNhblQiOiJBSUJJODZsT2Zmcks3OWV2YnM4VXJnaTlyMW0rcWluc3VEaGoyaHJpSmVWZStmWFZteTAxZFlUZnNibS9ES285emhrQzV0dFB4aG9hYlVVZUxNWkpDU3ZKVnZsME9lbTN1OXV4UitNQkVKNUNiSko4NUpzNUpsWjBuWEw3U2s2U1loajRpYnhURHJTdzRtaG51S25HbmZOWHdIdmc2NXoxa1NOYkFLZ3phNG1GRFB6cG9xMlltVE1SSExFTk5yUml2d0t1ZytuNFFubHIrOTVrS3FvUmlhUy9xRlRjcjRHc1QvQnAxSkEwZDBoNVRVcitORW5hY1ZNcHZ3R3BTbTZzSzZRPSIsImF1VCI6IjhhODRlODBkLWIxNjctNDhhZS1iMjZiLTQ1MmMxNDBkYzg1ZCIsImF1UCI6IjEwMDAwMDAwNjI5MDE2MzM3MSIsImNhdVQiOiJBSUJ5REQzUWtoRjA3RiszMFJlRnZIall3ZzZjVzRnQ3NRZFlMUUxLMGFuOXdqQ252KzcyM3h0MGVaSEdOZzFYRlBXRWlkM0tCRE5JQ2FLWmh5L09xWXZRcVpuYkpkaW5aUHFRUlNmcDUrUll2d2tTQWpjVlQvMDl2anJHSlIxMFlLUXJBbnQyL0gzbHNFaEFENlpWbXhuTUM2dTdPSDFPOEdGUlFxSHpBNk1Od0VxOGZUT1lSNlM3ZUFRRng1UmpPc1V1L1RsU2Z6OHNYZ3F0RkZYeTVsdzhrQTRwZkJ2SEptOXZXRXB6aEloOVBwRmVHRmE5enQveWVid1ZHdnRvT0tJPSIsInYiOiJWMiJ9.IntMXd0OliD-ApGQrCC1vXCnDzFl3nnjXCAzpRZQFbpMOxn9kow6R3lRzIdVul7e9GO86Lnw7EGQwLYqDusfwhufeyATb6jqJmAcRHY02azZdRt-Db2Lj-meNsQampgHasr_LCiXV2UDUfmIL3TpsbW5nae8HPEz1sQmZc_GBNvrcqM9R_-52Z6dCJogP74cGqWCmKLyAhna-hTczRhoki6wKE9C5uuJaKWRugG3OMF9EpNMl2TABlD-IBdfB_ShMxAP3eKaqf8bu5mHJM78FsMBUwUDQ1gjtrEBKwEyAZAJu6ttqdAtR3GsC7xayg53eZIWc0szF0tQMZS4ZGv2ZA"}]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.hdHRk1yLNgZFyYQ5nLY0nbYJ70NnGYxZhQ7zEfbseRaKbnpGWTO6QcFWzzOIIJ1vPG2aO2URbmvhJMigoyl3ubh7K6A5Ni15l_rqr7Vq4LTaQRxa5YyT43UKpWbc-wsuZSCm0Mlqs4tre13d8LEtzIr3RW-khaRNL2zJDtpmdNvijcAgzbnSiGS_ykSdMf4LS53FKV7GiV2WpqKnffYqwKy3Zlz0Gki4lYAqwoCjebYT87ttheR7vHgrkiKBXomeYkf6fL6Hrs1Zi2Y2TVKoCD61MY_hUsXqq2nOaUGB1tHJ8gtJFor6QYDr25o9JzV0TjrzNg3KJ3si21FgO-W5yQ.2b0u-UqRuRBD4mBP.EQ0SZGVqR0AqzLBcL8vE4b4pJU1KIbdd4OiC4ZDm60obchEM-ibyK7Ia8KUTMskbFN2PdCqEFcAelBDvRxy3GOlK54L0zd18FtC93BNEvt3bRQqd_QYDQ20KWm6ZimapWypPcVRAOPiRFhE2PNlUeKTQ7qvNdYzT7hX4ML9eXnzmFIHt3pQLPyLWKfxZhExDRg8ZPOQPbMq1KkqqQQ8i2s5Lipsxl0Thzk3yi1A.LeKieEFrHu_1_18kDVQsJw</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.bc6BMw5k_Ug4HYyFF4VTSCU8_sNoOj73TRmhcD74CQIYdaXXftnTUMyuN7XfUkAMeU8if7xMvzLW6CuMg93qQEoelw_JD8SOvxuLYNf7Tq2j57gHmnFNQg9deFmT2vqUl2vRA8iXA6PcI-W3vezeAT0BKlb7a9YXfZYHar4RBfMlP1vOPm0zpGRCU_9ALHEB3US6udf_GRn0jmgLdxXbMtw-OtyOeKUQDnaSHFnv84Y6KgdK0gS995hBfMLMCidgi1_27WOgWEuOJ5GCAfM8eGhI9vzemwooSIdlQeERqt4AMeT6Spp6cEYQ0nX75jpWk7TJ3ceBsF0_wFovRsBcsQ.XayHmTQGaJC6zlpA.-AxlDPv5nAFnrqDFn4CcqTMI1mddle3eC74H2ZXq71-sabuacqZcwwMlnv5hFBudeQJbOhEBDl-ShmM3sBgqTKyAAEgJsEM08_oH8YsoWcqMnVNczTe9pxcc6eQnkrihnjXFEbVgUqAERcqIzS8Lf-s7zImgYLrksDezo9M2FvEJekpwcVPHPf4Ha5GxOTqGXdt8TJzugMEE8tV1DcQOOJZIt7Iqpp_ErrrjKRTA.tZFIdh-530TAXFXMEAFddA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A100000006290163371</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>9903d4be-76c6-487f-92ef-237ba4955d11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DF9EC964-8A9D-41A2-96AD-0B6FF0BC85AF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aliia.selezneva.17.11.1977@mail.ru</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>wtnMHMraDXqWnbLfGwsk</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxOWE1N2M4YS0yNjkwLTQ4MDctODM1Ni02ZGQzNzgzMjhhYzUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxNTU4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImE0MjllNTk5LTBjYTctNDVmNC1hMWIwLTRmNjRlZjg1NWQxYyIsImFuUCI6ImNlNjRkNTNhLTBhNmYtNDdjOC1hOTZiLTU3ZjZjODY3YjBlMSIsImFuVSI6IjEwMDAwMDAwNjI5MDU5OTEzNiIsImNhblAiOiJBSUJnRmZ3aFltWkgxVm9xUExNSFNKN3FvdEZwU3VaNzY4eWFsQjhmSVJodlJlR09JTTJnOVBDemxmSSt3WXFJZ2VmaDhxVmR2dng1NklEcWFjUWRwS3oxOGJadngrSlNKL2cvTmJqRXgyRUhiMDQ2QW5vbllnM0U4R2pEZEZVZUsxSHp4b0dKZTNVMlZjSmw4VGRRdUtCWFdZUGc3QzU3eEZCSnQ2ZmtiNWU0Nm52OUJBR3dEM1hxUDJLNWNXaDN0UVN3ZUVHanRJdkRlY0tUS01XZGJwUURIRzhjWWFWanhDcmlLOUptU29yNXMxSlBWZVl0a3UyRkhGd2NBK2ZUUFNzPSIsImNhblQiOiJBSUIwSHVJbHBsVFBaclFBbE13dXp6b3FIU01tU0pncnd3UDBFb05VbWVUTlpyK2dWcmJ2eTIxa1l0cDhFand4dVVsbTdGMVJRYURtSTNCejNjcjRVRjcyTkhqVlExMDNBV1JVUWJQMDlETXo5VmlITnVvSlVyTjNWdG8rcjdyY3J1dVBGSVE5c3VLQ0JkUFlrSWVHOFRKQVVJYVphRXVRTnV2Z0tOTE1LVW81Ym1zT2orUTY3ZHB2SVB0dGxrUmpzZFB5dERiM3VmOHJYam9IaXRuL0ZoRytkQi9mbmZPeEMvSEdraGQ4YW1IcjZyaytPOHFqWEY4aW5DUWM1eldhc0JJPSIsImF1VCI6Ijk5Y2ZkZTc0LTYxYTMtNDAxOC05ZDdiLTZmMDJmNDZmNWMzYiIsImF1UCI6IjEwMDAwMDAwNjI5MDU5OTEzNiIsImNhdVQiOiJBSUFmRUhZalRGMkJLQ0IvdWx1M21QSmtHaE11RHVKbEpFV2Z2RHRuUFd4RXJaSDRTcVBRZEttOXVCMitOanJDVEF3dGw5alNKOExzN1o5dEdzWmJzcm1JdFVBUXZLRkxPb0l6Z29IQ0ZhdVNhOGtXbStnUTJGRHE1djh4M0tLUGd3Qk93ZlVPQTNJZWtPbDNlU0tqUlNKcVpZM3hUR3c4eGRTTzlES2N6a21JeUFqdGFOcU5kVFVTT3I3RWZ1WUx4MEppU0w1Q0dGYmMzVUEzM2NXb3JRV2V3K0x4VEUzRVQyZDZPbzVBSHVDcHFnUzdsNDQ3d0NVU2FCS20xbXlxbUpBPSIsInYiOiJWMiJ9.jLWuiCcRFFu4GLB9iDp2N0AS09LdSv6DoQ7Il30cO7jGZm3OAdUwf1m5gB1c0BCBPcmIEhnrNtmyPtQZggRfAQzfLMZr0iJWZ4e_zLDw7SA9UAW0kJzwDlGHJdu4dqL73sDTAt3JeVjypUpNs7XLt4RkZpJHKdVMotwl2OcW91JAW8Z4XbeL57-_PNh9_HHEDYu6iP_hR_QA2xCgXg2JLjWqrsxU7Qav7xoBeY3E1Kcv5CaCDTDhg6FfrSP3TFApQuSYMe5HjI3zCsgptXit3W2-XKnOgdS05ODxdf_Vu82fD3twb0BZp-sGH9c5KzRN_EHcIdytDud_WZ5gmB7wKQ"}]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TE45KvgkSxBTkX4417D_DwgB1ddEeilUSUPJvrup_q00FwOJ9PWarZnKFcfn_6NH20U3eW-bG4Pf83yPMZD5L8TnJHAqYeGHlnz_dkKFPZ9Pei1Dn0Lbv8QqQ0W4Ee0Mf8YLyfwJixU0fDEsJ0kXDlz0xd-rGq9peXqYdDrRa7qUcCXx-0gjFWebtruV1SUho0l9vq1LIVRl9y6LbtWbNXRSPpxFT1worN8IgNv7xDjJnhISk79JLiU5-cjMTUmYS763Ay_aTPc9tkiJvneccV5hPqkcsuZD3IA-ct1jVhqBVvq_BgAP2p1AwSVAmCThs9rQ5uHtFopEAjzw-oHehg.YQMNbH5a7Uy6X3mN.RJiQFaaahBM1X1j26yd5qYzb-eZMqYo0bkUmW4JiDjBUa-szlTF4qd5CKhJTbDYcjrRJuSUVCS5LH5jQI3nrUv2e3-HeXD-pLP1clThBNtydG9_xmmcI45iIaCkbHBxi0OAZ47aZqcyNYRWYXoDQWuU0JDJPdZTnXDdP2t9jf0jxwKLRGDiAVoHEkWh5J1mujSmY8lNI7Yx7TczXK4Kx_5l_b4tthD0uYgY5rH8.lidL88kO9odq2gWFmeslXw</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.EtsBumOlaezCgz1OLswVVtzUJEsGKftPuwxb0l3_cem1UC13Vw4NcD8b3sS3LuLtmAbvs_OA9vKo4I5PCnykrztB7egmkuGHXv_ONiUwzd_ON1TMP2GuISQuK6AIyKXQ7qT59JLKxmcYwQ6FzhL4w2Xuj8AVw3zFfQIvtJG1hQABRlEqfq_CMdhJqBX3SEzt1NKARFexmbiC3CX3w1Vyf-b_tSeln05JvIdFOO1NY81Sd1TP1xZ3Aw9DxuwhPCoFPbs9W9WREE2jdnhjlD39x5Ug3LPvMLsOoctm6lgxh5a3_RY_MCA10YId4WWx4WQNpFRyoXE8nsIMDs_p5DkXEg.qRBDjllgEVJrJa0n.Po2rvRU1AThGanMDT6qiA-_EfOAloCva5ROn4MPuGChMqX5BGXBqaBACqxz9eH_H8Rmj4wFkLSp1s4iZb9z4VFWZpQdNSDJ9j9eM0O0E0882Qm7tjdgDZb97cOUdxXqYPmndVKJq9lElqAMvUksR7b6-UtfCIuZChQ0PmORRtGVAdROTae0YW-8xoHgG9QATPZ9i_JwXzkYACWvDgZixo2lR3XbhE6yOlr8ZvzrD.ABj_QbRy_1zgIXQiveIlXw</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>A100000006290599136</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>cb01283b-52cc-41ea-9c0d-6f710f055580</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>6581CF36-8B2D-481E-8019-10EAD9905586</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>quiceliarham1979@mail.ru</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NEqXBH05LEeAdP8earPE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhZGI0N2VhOS03YmY5LTQ1NGQtYjZkNS1lOGQyOWRlZTBjMjQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczNjkyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjliZWI2YjhmLTg2YTctNDNlOS1hMzlhLTFiZDIwMmI0NzhiNyIsImFuUCI6IjNiNTYzOTcwLTlkYWMtNDIzNy05NjA0LTJmYjdiZWYyMGM2MyIsImFuVSI6IjEwMDAwMDAwNjI5MDkyNTcwNyIsImNhblAiOiJBSUJpWjZiYmJZQUYzZ1BDV04wb3hnRXFjdjRRZkVCOHNkSms5Mkg3VFh2MU5aKy84K1VoNW9xakVRY0J4NzI3UWlqd2pqbDU2M01iejVBbjZ5MkRFR2d5UTN1K2FWckdyemJvU0VwWmswRkJubXc5NVFCQTVMVTNUQnNuNU9ONEZ4M1VsMnRFY29HYlFkODlBZ3liNWFvZmZzLzh1TnV2aFJhUFRvaURNNnNQSy83ZWYzdGNKSE9nN0N1Q21CTEpjb3E3ZGpMc2NZdm5aU0VmRXI4Tld5WndUdTFHbGxvcFJ1cktMNXJRNjZsMWlBRHpCWWQ3a1RheG9nRnB4SFJjVEdvPSIsImNhblQiOiJBSUJGbjE1ajhyQVVqMXJOQmZQWmxtWmpiWkxKTnBUMHlSTXRtNmxCeUp5ckpMY09WcW5pSVRZQXJhNHA5eUtQLzZHb0xBOEFWY1pRUDZhQnovRHN3VFRIbFhsTjlmOWhnc1Z4bVlWMUxob0I2c2VmOExEdEx6cG1UdlpGVE5tVWpxQWtyc0FLVllwMDBjZUhQbk1aWis5TU93LzlpSE1ucmMyMXZramo4NXBGbmU5dENxdjRqakw2c3pZanFoQ2pnOXExV1ZjM1FnM2NTKytRSFJQUFdIdzRSZ1ppdktKLzZsZnRlWkYvYTFEZ25xejVQamE4cHcraUNXeUtxYnR5UkVvPSIsImF1VCI6IjU2NjUwMDViLTViZDEtNDQyYS05M2MzLWQzM2Y3ODdiNzYyYiIsImF1UCI6IjEwMDAwMDAwNjI5MDkyNTcwNyIsImNhdVQiOiJBSUJWQ2lxeld0a09kUmpDdS9Ba3htQXdWb1dHK0s1RTI4cHpNbXRaaDNPVXNpZUZUSk5IMnhsclo4N1U3RGYxSUszYUtQVFJ6T09PNVZuOEJnMHEvelFyN2ZsYXVodndFV0Uvam93d3lKa0N5NmdhTS95aDdXUWhoc25sMmh4T0FnaEg1WG5VQXhjUTN1dFVWZFo4OSszdnNMdDBBNDNpUDBraTdCZU5PM0kwMWx4NVlaanVjQzR0VDFOdm9LYTJ2b1QvTW8xQkk5cmZWVFBoWHpBMlQ1L1pCUlpubXhrdG93UWJXUFQyeGJ6a256RXVSQVA3d1NwZ0RpbnRSRWtwbm4wPSIsInYiOiJWMiJ9.rQXTP3g3-0f6_9sCiHGKpQibMKa5KWkVUB5Qixz5HgA-e_-vMC69dduDSxlW6qdiiVXWDGKkxz06EQMX_IBuY5ddXtH0kO2HQ8ZG5poYwVbFyOAocr4UplhC-E7VN0PxmWr0Mr_6ASq1H7uI_aQ_GwFVla1pmGxSl8Tv22hMm5G8pPakW6waiRnh1b2qvJRkqT3WBDIqAl0QJ7JUCJ1DA6wM-Fr3Sf0fUQd5zmg4FIi_eayk3S51SSR0r08czYLMsOHSI-doveKd1v7oo-l8GNkpust52lI-FpYU2bAN_V4GrrbkfsucLUuoEzR-Sf7OsBbvV_JY_Ajr2gfyvEYi_Q"}]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.L5Hjlv27tR81n1N8A1d03PFi1MJM9NK4l9k6NLx-PCw71tkeV2OmIqBDgfQFqRgKRNiIO5z0NcomYFKOEXl_1ghz4a0zr0iiH5I5G-llqtgYY3W2sw2hPPjrlV8TzaPcId2BdJCijP3wJDgQ9UrW3NsT7KOL1uaDgk5H2pZGN0uXGyEcmy7q3AVyRJK-3tBHFQcWYoRGslWG7vxWlY_VlcF2-n40h_hE8nqbSC1CftKZ9iXYPElDOhJrFIGCCP4uy8jbTUGWDo9fufkkvFCXDJHadpPYT6YQaWcrElR0kbMzn6xzXaM4GMrcAMGuRRLLjq7HHBaZmeTDL2IfHz2soQ.GErEhMiTcQvEuMbA.dWVvLdJc0nDLWUIKm8XEauWreqHWTXrw8dv5MKRyQUr9b8ClwNMm-pzkjIRC0pZJan5BV5jNnekLKwin180X4MBHo9PNa1O1MnT8_WYQo3E3GWSCf4IcFsRgCArFMW7FOABBVjE83KC-VZEa2f_PUpXfpNMK1C2Cr2hWu9ZNaDBINPNMe0VhUPj_3eB2ODk9bVRc6ToF20zF-X77Rbdr2QXSOFtZq2wcsAc0HMI.fXwkvmxFXC48DgrKbRnKHQ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Of8yP4UFXjXykttxPsz13ZrJcplM-72_A0uzTQO7uNODiaDpS6vOEGdEBL4iyDm1px7ROuL46zp63bZwkQXm4I8NFxneTv2WxG3huj9LMNHRGBKwD5D3rIYruh3grawKQvHa9Yh_GxcD67IvCcGUoJuUc9t5oThhf7qR9aQU2X7xy1zK9tb0ok2k1DKUwANRAxx_pevYekb-IyC_6TdnM9YP6kZQi7p_6t8Is5AeAPOFLN0ftc9LIXE9HIobpfj9uubbGQkleXZLlahgcUqw2E_KWH6xA4vMiT-Dmjqm6lfJrdgZyTNIGuFp7w7r2O1d6cIA36t4-BMeIrskW_IWzw.00MpqJd0__He4Qfd.bjt_JKwOfbmCKIIsbqwixQegw_Oazd7-lvzVWsEQgxaNd00Keh1I_RrmWs4PzpWQwStWBbQFe00s9oXrs_rY5OsKWPfF3nGKxYsdhs8U2oPCw095Z0OlGc6756g3hgkHnCoJdwTWzclZuiULGf1rSM2b-0tRuMmeYJV8h-S9SDQ8MaxxGXhk2P1G7_bwChKaf1TTcLW0yEryw4NyKyqVzalEinynit3TuTMRuw0Y.wKT5L9R5a4ywaEX1z10BMQ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>A100000006290925707</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3fcb1d79-6105-46f8-b402-93e9b44cbbfe</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2F617B00-0D51-4D98-9B06-4E0E663C030A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
 </worksheet>

--- a/Cookie/Befor_Check.xlsx
+++ b/Cookie/Befor_Check.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -505,477 +505,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>IudinevAzolf@mail.ru</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>HRJErrHaJ3Q5mSMFCGFC</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI1OWM5NjdjNy00OWEwLTQzMGEtOWEyZi00MDIxMDExOGIxNjAiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1MzQwLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImYxNDg4ZWYzLTFhMDQtNDUwNC05ZWU0LTZkM2NmMDdhMGEyOSIsImFuUCI6ImZiZTg5NmJlLTdjNTctNDZiNi05ODhhLWNjYjg4ZmFkZjE1ZiIsImFuVSI6IjEwMDAwMDAwNjI5MTI0MzU1MyIsImNhblAiOiJBSUF4Y09CVFJCU1FIU0I1aFNPTWJFY2Fxc1NmNkkwOUR4L0IzamI4S0hhZmVldkkwZC9oN1ZmVTMwbkhJNzdaT1g1aTdrYWdLa0xxaVRBMzMwTXJ2TlpnNWJ5VFhYcENlUW1EY3Rtc3NIT0V5Z0pNZWppNWdtZFRDZWFDc0VsVWZvbnpDZDMrVHRiSlVHMS81dlA1QUpUNi9WMzg3bWJ2R1RscytFRy9xLzh2aDFFT2hnYmllWVFRWnY0TXFSQ3NhZnRSWVVuQUdwVUpYZHZzNzU0N1FBMXBQZ0hEbytuZXVUOFNuTWNhVmxrWjZRQ3UrQVdkeDNDOW4wYXVQeUxLZi9NPSIsImNhblQiOiJBSUFxSE9CUGRKS3Fmbmt6ajFZb0MzZFYzWk1hbUdiZ3h0L056L2g2WnZneFh4WmxuOHFMeFFkRkpidGRZR2tONVdsMWxlVHF2ZVZUNE9GV2FZemJaVjFBZDdDZjRTdUZUNDFCWVZWTEV0ZU1Ga3djZGt0dUpkVkNPSTcvTjkrYWVOVzNNNzFjckdWTzZYOCtTSFdmWnhMdHBjb01zMm8wSVAwWXk2cjFJQnhEdUh2Myt6dEYweG4wSkZMSmlTcXQ0WG9RZUo3YTNlU0NvaGRhc05leFpkNDl1S3g0WXBRQTFYWUI2UWdpVTVaU25YNVVOOEttVkdxMnJDZGNHaURqdEdrPSIsImF1VCI6IjkwZjJiYzg0LTQzYmQtNGNmYi05NjI4LThjMDc4M2VmZDk0OCIsImF1UCI6IjEwMDAwMDAwNjI5MTI0MzU1MyIsImNhdVQiOiJBSUIybU1RZm9qbC9yY0RrYnBlZndZQXNHZ09ERkJZeXpRMlF5ZVpjQVZMcDFRRGVoSm5acXljN2NVOXliWTRDWFFIaGVyU3BnMjR6ZzhsMnJ2MDNjdmdOdnRlR3dORjBwN2I5eUVQSGlmVVJqQ3F4N2VyeS9UcFlDWGtKZjhJeEo2Ynh1VWpPR21hMWtqSDIxSnV6anNXVmlUcVlZWk9OWnFJbllLbUhkQXBXYUxwbk1uTDFncFJLNjN3N2wwcTJpVHZzVk1QR3o4WXRPSkwxREttOWprV3dpNHUzanpLWGhteVEvd09YaVljaHJwSndmU3IvZ1RhUHUvK3B0UEJUYXdJPSIsInYiOiJWMiJ9.BOGHf58TMHp1vOWU_rqwATK90-S5l4vstBV-oR2sDxGqQh_CVMjHEGHU6ZYP8ewAI9VnYkD5eIvWxTBFGFxwSL9zwfF39y_TxolnhFzAQnbjybjMR5zEmlZ4NyGBsXxOnVAv-ocTm9TKnOD-W-_QNDWLxASXEvK_UxCKsJBYZYFfMvh_75TO2hwxq4hDlt6q0X2kFQwiEDL4A_3KljCaVrdoHbMqWoHzslaEWIBW3vqCeymHYa88NRUtyRuxyBIj_7aDgMTga-xe3xW9wV4NHjZKDnFPi6FaNe2yUz5eLahTDq0MZYsk53p-5adywviQ8P5XlTxYL8yf7H1N-V7d7w"}]</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MmRcBOhiZHDSrCZpdQ_KUtiPVT-bWX7B-0QvgAdO9nfA9Ba9SawG0Lie54ggkPFqMJbGRVhU2i-nZ5neBjBOkf0Jgoa8N_JPgxvYYXqY6c4CMZ_0pB97Uzaf6EKbh8ic9lNgAssEG3XzO8zMH1Ghg6NbDGHGJ2B_U4gXsLMTYQi21pS809TOupeSvpQw7b2D3xGmfyieTKuoW_ruhowenJch3vRz73vwc48apYKuO6ynT1EFvoyf98TvAwgJ-s1_jz7El7K5jwUMWgxo09CQATTN_bKqGtFPeOk1uglrp_eAI8_yPWtV2S1S00xHAqr9DnXZpLWCoTihunkHFJen_w.nUT0tQOGDiUolSPS.1rFSh6Jk_N0t0jdnB_Vz31Cgt0HTKA3AECs0qAZWRbi7o2OqkWVC2129tABqEtLZplFzlkRMQ4HFv_8X3ANJYfjyOTf6jlQqsuIhEgNLiRmb7K88BVlHkd8sb7BYaPPx-RY8MOWcCptjQBEMZysvEb-ECV4o_daBilfVr47XqDiBEuwEWIHehIXbr9TzHShDCKZB1M3ewQ5GKqwgjQ7W0JA-8uZi-pEKr5rTr7Y.4uULWSr53O1AMb23a4EiWg</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.LFQIrJGYXfTfNhOX5QF-vRwPLL_tM8MlheGVCttYNXlaRt-jqn4_diuqPLvAVc5BOweVYKpeHBMmFBIuRlnKcbbNVTX2C8oy3wbfDghgPS0plUrKdZEIkGeZPZeeUn89_8Di3eOQr8BDgYxu3X6MUk6TxPX3Ew6J_VpR1sKDUj3MoqHeOa12NmWPz9oF-DOIWTvt8GB_9-UCO6kgYDrLX8dzFQLUVraUM8coy7kgHFhAo0Y0MD-U3Yr-jxJ04CwaxcqTp-9OW2mKeuG_SUdmxrxHMSVgOrij0iBxyqoUDpDETcvHngGQoeC4PnfbmKQXnpBSc0LzXQaA0uA9o1mxIA.v9NoR5qnDWAgWwWA.3OxWtduxtcdsWI0Cze2pIgyk4097sGjaQH33JBNtxjeHB7icICVPGemTEWYvGRfp6Mle2hm1BzBY-KSOLXRujy7ww9WdNsROWk9Ud4LKkOk2RSVf-6r_NRH_cKYj_q9T1KQm-NwrUVtDajp4qqysdqnJs_WWG4amn6hKmkdyXTB-cO02V2a-qbXiWCSEnMbWtrozTJEwMwH7Hgd7hnzEyjIc_rA7wClR1LifCWOj.HOOHekkW-gJec_kzoBvNMQ</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>A100000006291243553</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>3107149b-dd87-4800-b6ea-d07d4571dd15</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>7FCCC820-0164-40FB-B0CC-AF22BBD0E533</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>mecetembi1978439@mail.ru</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9ybn7ijfp2CEL7gh3jx7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJjMjhkMWU2ZC03ZDc3LTRmMmQtYWM1NS01MzI5MjAxZmZmODEiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NjQzLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImNkMzVjN2YxLTdkYjYtNGJhOC1hNzA5LTI2ODczMDhkNjc0MyIsImFuUCI6IjllZWFhZDk5LTVkNTMtNGIyYi1hNjY5LTIxZThjZjE3MmVjZSIsImFuVSI6IjEyMTAwMDA1NDM3NTk2MzIxMSIsImNhblAiOiJBSUJUQithOFNjcHpGcFBWQmtadXo1dDMxTUZmWmU4S09VZkxMWjMrUjNwTlJ5eVQ1MGdiOGE4T00vL25mRTQydFB6T2h0enVTbjNxbjBiT0ZBQTJKMURFdTdJTUVDSlVvdVR4VjFXeC9OcG9HeTdrL2Z4M1M3czAwbUcrcTNPRWprYkhQbEZIeStrQTJ0N2VhREdzbGpwR2dTdnZoVUYxcDNkN05pTWVGWDNtdmViMHh0aGQwNk5ON1RueVJUVUFZSTV5TGIxMVg0NThLQUVUczVrK1NZOFN3emFub0dmMm1xcC9CMC9DdEd1akZYNm1zclJ5QTRRN254SlVVUENIdGRnPSIsImNhblQiOiJBSUI2NjkvUUdnL01PR3FYQXoxaHllalYyUno5ZTFXSGpRTllBQjA4blFvSCtsYUVCUFFrLzlXU3Q4SjNwc3NYbkY2MGgzV2lRZkRwaEg5QVNMVnMrc0ZvdDJGWG5rK2RIUWk1MWxFTFFLNWNiZDdxY2xDQzJhOXEzNHVNTWQyUG1VMWJSS1MrdXVVZVFFZE5EZU9tVXI3MEpBaE8rcEV2RnM5cTI5NWNFc0Zsdk5ORC9iaEM4M2kxT0hNRHp0Wkorc2FvQXNHZ1diRnVvRWpmVzFvU3lHZzN3N3B6ODE2bUJVSnV2YmVjcTJGUjdGK1lNV1BYNC9LdE1salIvUnlCSno0PSIsImF1VCI6ImM0ZjE0ODU4LWJjZjMtNDVmNi1iODhlLWJjMGNkODk4NjJlMSIsImF1UCI6IjEyMTAwMDA1NDM3NTk2MzIxMSIsImNhdVQiOiJBSUJiR0t4RTd0azlTQ3pTellSV3RnNmhLamVCblBjaUkwME9mL3VQNkR6R1VmeWZKMmtJbUFFb0pNaGI2akl2aGVoMXJpU1JxM0tyQ0lpZlNMN3A4K2YyQ0hWemdhRDBTK3ZYSGVOMTcxZU0vL1NNZldsM01Mcm5pT1ZGaHJUVjUvemMxQjNrZmxsWnhRMThGMURnbXo0SzdzODRjYWcycElZbHhrU1dKY21NWldoRlJweGZreFRqODNIcjloa0JrQ2NJSGpxS2tsc1hXM1pqWVpsVTd5TFlwUVRHdThBTndJMHRxbmZRd3UzZmdza2JxZFJpazlkWG5kcndwKy8vNnZFPSIsInYiOiJWMiJ9.S_ZmNL-qIGivB3X9DmmvNw1SuimfkVCjjqVfyYOpUJuz34gF1iiZ11e8cNz1oaE2GmB2oK3_kAWx6WfBaLMDejtZArTqpzNlHiBQEIFnGEeuI3B3U0BKoViV9Ts5wEFlNoRVT8IWkP-ttClEFW6vOG9-WGntA3S9NXn9725L1Y1j-e3L5g9XHPdgv7BOvOq35RuzlxTKVc_cR5k5dn-U0esWDTY8qpSdhkRgbzXLG4rYBBnx1Fu1TXKioZM-VTrDtZi6UypAf6s0K0kKerWs9FH33TklJ7Ixbh6leXvNsqF6Mhe7Lqtsk_rL-XVYVU6p5TgeKHUZaEgdURNcI_vQtg"}]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Y_9uKv1lp5yLmcjRiWfYZd2N3Di2BjbxUaCQL9GDbiB7Ozgec2yEnQtYtzC3QR5trfMxL79mbPb2YUrkRhreHB3i1vxgvXH7yfGMUUvcf1z_daTdSoYj83sVp1fEFBEdwhA7vLbXoy_rkt5Y2OoiEyGeFhAhj5UegKoRFpjTehS8eWsvzRQvGRbk8glVboz3uAGrxSqzgyWfxJtuwYRHXjGQWTnwxq24TTD28ZmlaYZyfypzv4PWrTS1vgsrhn2ywhzocb-ac5RBqTZh5B8AKByHmEpuoHXan2EpJsEjdIm1arK9IJi5e7q7dXu8OFCgDL_p3FOM3Wdhj3tHCkHM_w.5o35LSpRpO2nj0IV.u0w8m_bL2rUN2pfzswB4IOPazz4QqodwxF_09pcdLo1aapZu-KFjC9Ed4J1w7iWfMQ3j8D52Ve5k9QAYj7JqkoHnp62yGnRupdqectzIq38jqR7xQcpvKphAmWH1Tr79n8YsP0tMPO1Tg4UbEKx7WtyI_b8m2z--MTn2fLXXS9kXUxZhUIxxfS8ZKZtqUCbj7XJIV-74E93u8Nn-g7qXAzce5MEfhMKrMlg28Ps.vfoJPcGxNhB3Qy38H7bKHQ</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Je6HcCXjGwFEnQq_DRcKtb3OekftV3n7WUUFUVXHegN58yy317AVOXseWKIj9UgWarap3M3MJzmE_TPBFCFKNCHZVJFzHi4RvC-Qr8QNzq6QJallHAumaB4OjEEObiEOiH_f70LwMGBlo3GIqAx2-0o4eMQBgOCo7hPlPFcGBFOOW4EIW4_ClKDL9G2M3OoXyK_VJnHYGp9UneZnaXvRVh1NrIcK11Q-9QTU-U03SxfzfYZykJs_UfIlZBr0PkgJKfJxPi4XEDignC0WO3hrM9ss2BGKdImIVtka6JNn2rH7LO8qp5lGs57oxTIwa-XVYYSIQ3-XUIQiwGZl9iIANA.ImfghwskgixggUPF.WfJf26Evy7YJ1QCLfMRb6Un7KLWS3MjpMIgfZNajaxWfdhJVGDGln40fEnRK400XqJ20tgf0SajIIaDKXtmXwyIWJ_hUBI_-_aUysJbJbemJrUHHXytZ8IfhnPxrR_mNPhJbofpedFJNi4UabEl4FtMPfhpZewmOO-5J7lfB35r6d4qWR4raaelJR9mPcKwR7LtSI5t8xisGLEs4dU9-EtVIJdVa07n6P52jVind.zuCSP1jiuI9GRAeHn8IbOA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>A121000054375963211</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4d7363b1-240f-45fb-a760-ce0680f68cce</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1C681C69-F28E-40D1-BFD3-D7C797F614EB</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>hormater_0810@mail.ru</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0QDMx8Z57vpbFvmHZCnB</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI4YWRjNTdkOS1iMTg3LTRlNDctYmVkZC0zMjMwZjgyMmFlNTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NzkyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjUxYzg1NjI3LTQ3M2MtNGMxOC05MmVmLWIyMjdmNGJhNTdmOSIsImFuUCI6IjU3OTIxMzZjLTQzN2ItNGQxZi1hY2JkLWJlMTAwODIzNDA1ZCIsImFuVSI6IjEwMDAwMDAwNjI5MTMzMDgyNyIsImNhblAiOiJBSUFrRXkyMTlzSlVBcDk4UFNBeElaL2lMMHZpeGRjOHlTY05FSWl3U25aVWR0NmVNZkQ0S0VPUkhramlOak5nUlZpSmRGU0p1c0d4aXhWZExzWjF2RG03aFB5aW16MmpwRmJEV1lhTlI1Kzd6b0tDNldqckVSQ09NYVd3UE1JODVldko1RjZEbWQ5U0JlSW0ySmpzYmplcGdVUmJKdU04Vkg0TjY1bXdrd00wenVTS25mUTZ0SU1kcWR1a1RsUVR6UDk2dzVOUzFvSEEzZWN0RGIvSFJ0NTh2RGR1VGtKM2pPL0lpRG42bVRrZ1pmZ0FTVTE4aExrcjBVRGVGQ0lwMFpzPSIsImNhblQiOiJBSUEwS1FUQlgxZ2hnN1dIZ3E5OHZ0WkVvK3I0MXFyRnN5L09rMUtob3hBeHNLdVg3M1krdTludzd1L1pBTERPWXhJVVNUWTg1QVRUaEQ2ZWJmdUZBWlZrMGU2bS9BQU45RlhoeDdKNE5hWkovaFBLcm1zcW5hR1hRaFdITW5Cd2dqVkt2eU1rSXhUeStqZVJwY3l0bU1jMVBVc2c0QzgzeFVFTjU0M0FmampwRUZVUTZhRzNCY3p3N2lsaDlwelFqOTIzSk0ra3E5NndNNXppZGZ2WVQ2RnpFSW9aWGhscmZJcGFMbkdFaVJubHc5RVNxa1FJY0g1aUkxeTJqdWdrZDFjPSIsImF1VCI6IjVmMDMwZjIwLTAxZTgtNDUwOS1hYjU2LWE2ZTY1MTM1YzVlYyIsImF1UCI6IjEwMDAwMDAwNjI5MTMzMDgyNyIsImNhdVQiOiJBSUJzdWdyMVlvK0UzMnNVU1BBKy9oNkpFWVJEaGlSTHpIRnh5bWpGREplVnRnUVlzZllRMG14OG5odmM3ZUl2UXpUYlA0QzhYUVFISlZMT3k3MC9WS2ZLUkRldGczRDI1UVRsbWpnREdPR2ZjTnFBa2k0ZDQyWmtlQ2M3anVWZ2xoZ2VzZytRemFlaUdBQTRyWjFvOUk2Z2ZndlpQNlphMWx4U1ZtZkRYTVAzMmluT1BjQjVpNGxzeXI3TDVtbWdEMEowWGpCaG9hblZIUEpCUzRONHMxdkh0QjZzTVdUM2dQUWtBN2t0ejMwREllWVJ3V3dtQ293Q3kxVGpWUnkrTmE4PSIsInYiOiJWMiJ9.jv7Xft1WdZ9V69oaT-QPdw7hra2jXrN79iuEpb2ngV54KkJxzBpmvSr-FnUzsVJZmCqiavwqDxTRydZmXcc75FRSdzWbNOJLrtwKi6Tegf_ZmF4FCy_bpDomZjOOP9V-ABtiZSwyivgRnFA5SYxZsHFWdO3V1XmH_xmueVsR5zDoKBA2Y0gtADSNfiX5-1SEK2LPOyp1rVEi8CnBF8_pJ4ViRZXkanj6O3ASEtCGiQBGN-muJfu7Pn0JwQQm9iOCKFlCBoAK2AvHypYLxAl1tm11JT7NC8UgDywqVAmYiOrsLALKA587wNE-OMS_UFpygalIYu3ce75l-yyo45yysg"}]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.QULdLwFeeXD_bCPqaBPhVc3v-vSYwcrpnz8IwNAvO8tlKGSafof6WN5PO8kkrhFgLWwiU00EVBmKVINAkNHxO2OTNqAPalXrP3_ybf39tEwcOQ_rDrpuukxZchb4sPcHp7slhBBc4ALaZljhh6rVExsTaC5xuKnwVcbwRdicmIZFOX8g7Z1kpPhHiKIReRDyiqipFmxvLruRGJeOcTNx7FJUiON1ByNJlvrooTi2GgY_X4WDGuwNXs8ymVsfgvjh1R_dhQqHG4FQrrycKtw9RowlrDQds5Ii2Efi4xs6nLIYeDYX5b3FyyIX7IBgGS2KL-39GVOhraZOVOmP4wStMA.XGMEC93Oz1k8HoOa.yTNm_L111U-aG9QMwU1Un4CQ5SA5rWtJJj8DOeBjigo-DUMtgsNtZUVrZ8aKEy0o9exoRslpBxsIvRGrnLeIBUMEljy6Ulp7vrI8hvrHv73TBojhXi_HKcSKgCk_kevrW1HOu5HDIV0B9m5RyOPw9BidSQbOJRHxd51y5TnZ5BMV3cLZr3CRmTk53ZAOlKzVHMyCfYCOXvKPSUfu-kUf3cTmjy2fzlFKQWA6aJo.pA_5pb5kwrDP4y6JqQLD0Q</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.VxVp9gua7tfiZo5auY1QDYY-A-UGTJD1f3N1oQST-waTtsME1CFJSbACuRDinolU2SI2K522srLjn1hcg5HU5cIF_4YxWfNw0dQBpokebcFMq6O_OPEZx3knR5PZUy_U3HOTVn12UYl1UI6vdFV2TIM-P0iggY9CqjrnRUATWn3GkK2VPijP0iq7diCYbwrSt-vCf4vI6jJSyQ5-2BNa0Zci2O8X1u1aEx6hmx-8A2-khhCzakvXll8rGRjCp7oOHlG_LLBWG52KMkIMFzdggti4mtcz8gMKY9eZ44ZqOK7Rkf6UNKAljTcqAdAJotmn9OABu1AkipvbSIuF18ulcQ.zTCMT5PIMQkeRYit.z9AyPlfUQi_ebMIODbMpsy3T7zlw9BUfGCFXj3wFmSSSIVZgGaoHZTNhdTT9ECMcED26Sdpm1rtQc4Ekly1yT9zl2ZttWvYwd-gifp9f5q79DJBOJiLNYhQ2T5qYc7kZK-ogrmbyyhwGRqGGzbRBwBH59KdTqxEKXpjisMGREuF9JAdQNW8qINDEbmhNs6dXTF5mwm21eJUripB6LEkV7rUrB01R3RGuyI_MeHUS.9N14jzG4Y3jErVxGOkr75w</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>A100000006291330827</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>b4f3cc9d-a440-47ff-afa6-f04582d31df5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>18A1083F-095E-4CF5-83BD-F8DFB1D9C37F</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>yaroslavaksenov88@mail.ru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>c0VLrwWZZu4w7sSR1RM5</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxYTM3NWMyNC1jNDc3LTQxMjgtYmRiOS03Zjk3YTc3Y2U1NmQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1NzI5LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjA3M2EwNjViLTZmZjEtNGM5MC1hNGNkLWE4Y2JjMzVjMTgyNCIsImFuUCI6ImNjOGVhMDUwLWE0YmQtNGVlZC04OTAwLWNiNGM5MWZiNmEzOCIsImFuVSI6IjEwMDAwMDAwNjI5MTMxODA5MyIsImNhblAiOiJBSUJ5dE5NbUdhc1dwazhCd2t2Q1Jud0VMZ0dwcjlEc0FmRWFobGdBOTdsYUQyT3N6OUdRRGVFU3ltODl0YlRtaGtGL2xWanlWQ2l0elIvSk5qUGFPTTZVaDBzUnBhNWZxdE9aSTcvZmlmQnpNSGJsTm5acXgwNnVwYnFkdWhmQjNBSXM4Vm1MNk1mYmxrb25CbllZdVBmbHplR0pkeW1oWFFRZDdhREZUQXQyY3UzRmhKRXNYMTh3aWZGNTR6TkgyRGcrTVAzdmJVSGtLWVFhQytxM2Z1SXV1UXZnTmlWcEFsaUdNaGhaakt3WUt6UUdNbTBpejd6MUMwZHBWdGpnR1lNPSIsImNhblQiOiJBSUFCSEN6eUVyTHQ2UFF4UWNFdlF5N2RjRVRWUnBHMWZDendGRGM4cFNhNXhMcm04ei9xVHNIN1RSek5RV3lHRENQVC83TDBvRzBwcXMwa240S3M5eHpndjF0WjlaM2VNOGF6RzdMdXRFWmZ3MHA4U0I1TUljbVFsRDRQU3BpVG9lMjlST1J6OWF0QUNyR2loSFdyY2d5Ukw4WElZNlhtRmdSOVkwTFloYlo1ZzI5Qkh4WGhoM2Q1cVQwQTBUdncyMVNScDRVR0N2RWI5bThWTVl4NXlRazhEa1UwY3Qrc1Y4Y3dJNXVUZmJ5aEtsU203akRPVlVkV0UwdHFIZy9lMmFjPSIsImF1VCI6IjFhNGQxNjE5LTJjZTgtNDcxNC1hMzVmLTRkYTc2NzdmZTg0YSIsImF1UCI6IjEwMDAwMDAwNjI5MTMxODA5MyIsImNhdVQiOiJBSUJZd2VITlF6SCtLb1F3eWtYbXFQUkpSVDJLVzBOLytZUWl2Sng1enc4c3pNZC9kYzJhekxiUjlvMzZBUHg3UmdMMHZaenBnaE8wRDkyd3FiRjdrMllvaUg2TVczRkpWb0syYU5Jd0Rod2w0WXI3WktvUXRKbDRMai9ZWU1ldkN1Y28rMXdYR0Q1N3lIc1RNbmlXZWZJSHFUdTlPV2pkaFZXRnAzZE1YaHlBYURBcWhrWjNaY2ZURG11TDJ0RHFPSENIVVVIcExmRlNFaDU2WGVweTJSem5wTDlGTTYwU2E2M3A5OWlKSi8ybHhKdVg4SmpacUlpQSt3YUhTZ1F5cnNjPSIsInYiOiJWMiJ9.AJPR3jCAKlYhnnkLzeHlsZKfML1PWd8fIPw7ZwxNIVApFZPzFFh8XJPg3eQJ0qkJNV7qfBgYmU2aAUCGuRSMPDtkaHUHzmW2Aq2oyCQKImowvokdmVC2BorAnxTR-83axWtAijJvDvJR-FXdpdkNSeYh9VJ1nSJ0fwHowuIypL4IlBio-7NJn2fFTK2wHXwcPvPN5JZNesE7jcmT7Mv-Ix8mWBPi_i4aCJks2HVy2eB_GHCpsSsLms8P3DsiN-Vekwu1n8Oj9vQ3XFgbzGgDGMlSr2ixb_BnqhGci20bmLHssElDpn0LPLSG9ojss4-sTeUenKCpFUistj4oBOfLiQ"}]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.JJ8gQZG2CLG4IhwEsKZzA4xwWGd6osXm9og2dL0qwxmhoMoluGf4IMb7Z3IUnlLHwEHXjwB3O6bgm8nxg3gTu_E_Y6Z9hlGUjfEZQMxErHG2j0sbHM_Hat9anu5vma5CAcvfcTM_WOqyNCqYVQ9EyHyjd1DvTL27hOaDCoxbGEyXISz-kRl2nVI8Rumacva3_rw8q03LUtyhOv-ccGC_OOpf9CfzgQG_30mCAclLtfWqlCU5ajlBJWiO2qeA7e9PDADddGuSGP1-Qv1HMEIhTeDeUWtxbXeCuKoquoCB_pTG8n_KLP0TenqUhA0NLUn_lR34YemvSQEJIiCUmAdazg.1ZvwtXfe92kv5nYR.6YNbty5iGEE-6FV1xqqayRwABrQHIXSEyE2PX6P277wyf_4eD4Dx-WgDo4jXT5cLmr5zNfaj3VYCuNEc2f9EhX-vhB30f2jzitV-GkhNzbMl-12O11S8LaUJkxwv1KY_L7OTyGp19qsg1zdGbByDgNqKeuKCQ5WAzMHrdLjRYc22HVLkBptI3ldEa9SmKqT4cRiNQ3NHxNDyw6lQ87fq_2PvIE9c0tZqip1MKtk.VTQqiEgLKYVSjES31OCD1A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TG5wYXFNskZZtcivP2SSb5N-CUXKk1FWnPT0d0-x63tuuIliFV2KYmGxlvy4lvsvBex0OSicQ-pBRs1jZvVEW1xPF5OeyaRj0lSbu_emvjQzMORFU3yW6BqWkuMb1pSEtwsEbIubjNAybQ3P73lawPG_HUMfsp5VCugr6Dr1yHdPc9Agp8_mHImW7LjxsjUzNCI3hsWlAO35UTGkQ3vyA0THqIB8CiWMT_Cgd8Zhx1QezogqlKvt33201Vx04vapGhxbtKwwc5xB3BCTTF4QDjtBXg6pVLq-2-dzgEhsM9ojJtZwZCwmmYRtgKcBS74A0QpdqscAXmYIHR61lXeT9g.YOs7odlm2o1yG-yX.CXJ3CHceOtK695Dyg431AM6Jbh8fFzL_X3syq_NqQOFAcSOe6sOJ0QBNDryc7uIbNm4KrOz6FeAZslNaozfNs1ZfKmuFiBYm-b6LlEP0xylHU6TchTOAX4X02jG5Xe5RSEH1FMtxk5Y4tvaa14o0NX2H8yUCgebkOxVhTCBjUYv_h1XouM0mLEUYaWgmbJKHuuywgEufkig-TLoNPTsn2ckyDyYlag_OAyTLwJ9b.Ss8o0dXp7MPeSpKSpmPh9A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A100000006291318093</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>41349fce-386c-4e09-99cf-660b58e5528b</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0E838108-4B87-4A1A-B763-DE960E04F36A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ivantu0mor@mail.ru</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>tVVtuKrAVcq27eL6U5sR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhYTk0OGJiYy01ODViLTRhNjEtYWQwZi1lNWQyMjMyOGEyMGUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTc1Njg1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImM1Mzg1ZDVlLTExYWEtNGQzMy04OTI4LWUyYzhiYWRkYTk2OCIsImFuUCI6IjBlMTViNDA5LTM0MTQtNGFkMC04ZDA4LWU5MDI1OWM1OTkzZSIsImFuVSI6IjEwMDAwMDAwNjI5MTMxMDQ2MyIsImNhblAiOiJBSUEySG0vekN5WnJ4QlhJdkR3U1dtUzhFcWJ0YlFOamxMNDRqZzdGK2RaZ1Fpenl5RHA2Yk5Td3pCM2VLVzlzRHZFbEVKYXl1SUE2STgrVWJLbXViTTdjNkNrZnh6QnJTM2s2YkFNMVJpeFF3bVE0T055dGgwY0YzakcwcVUzUDBtMXNFL253RGxoYWpzZ1dlU0dpV1k5elloWDArMkd2MXlxa1c4ekd0L0tkaXY4NEYwekVoSVh0bE1NcURwcTNnVXRnOFJ3UXdDWG5iMldBVTJVNEtja29pSmFwSnNmS0h3VXRiY0lKRVM0TERpRWNmMDdiQmFqM09MYnJkNGNpejMwPSIsImNhblQiOiJBSUExK3NhVHQvaEZScDd4eUlhbHE3OW9OUkYybVVsaDU0UkMwVm5GNkwwMk01TFFIWlNicjZFUFkyUndCTm1mQzhRQWRmVWZKdVlmRVJ1NnNHcHRhempNbSs2SWtkSGVleW1Gdyt6TG5zdG05eGIwWmgzNVp4Q0F2bTVvdkNsajBUM05GVVRrQllzVmROMW1jMEVseGNycTFUVTR6Vnd6SldtMURpL0VJblFHaTZVcEEvWkdTWUoraGJYN0NBczJCYldTVFhMT01VNUk3Lzk2ZGRqUEJTY0k3K0p5c0p1Z0NwNWcwWFA1bUtDMFN5eTBkM21LSE1PTXRMVkxoanNBU1dZPSIsImF1VCI6ImEwMmZkNGFjLTg1MTQtNDViYy04YmY3LWFkYTQyYmE4OGM4YyIsImF1UCI6IjEwMDAwMDAwNjI5MTMxMDQ2MyIsImNhdVQiOiJBSUIvTnN6a1BhbHFwc1k2YjhVTXdYM3FHa3B1dVM0QzNDeGc4UHV0c2VRblBjbk1LZVdJSHBpRWhzNEtsT2krOWhFb3BZdzhmRkFiOTVjTGNNdC9iZWNqWDdUcER0aFVza2JVdjRBcU9NM0ZvRkZhbGN5clROR1RrR3NJcm5xU250KzI1ZUwzRHNzN0tGcitZQ0FCN0JvWk0wdEx4dzVaRjljNGxuOE1JOGZuamhwSkxkY3plS042QnBQQ2RZamY2dTZnL0FRVVZDUmJob2dYRXRjR0FybEQvSG1kOVhqQjk2N3dndlovUFBYYUFTZUxuSGVHVVMvWXlEdmFvbHRXMHlrPSIsInYiOiJWMiJ9.rjQYKNIEBLnFVhoyhmc4JIiKXJFHkOi9dFrgRI5bP-jV5lnnhnlxq5uWJHV4gQZU5haKvY6fv-QBWOxlPSVIPlynu-Q_1jPk32b6phWNRVpWnjWEbQPkFymjb_D2P1bgCGzMdy4YhAbnnxV0v2kvbozhWHKcLpFkOHTBYnK3597DHT9iQxWsQTkI2DeGSxx_S90baIs8ID4w7vUP-P7LSURZO6qVR3lcIM87PB6mV5a4XXPftJMIfDyLug6AzPVapsucw2Wq46YgNzEt-Zv_3ShFIuyjtMjJjauqJX5FmhQWHbd8SgeU2-vVskSqaAkTNymey4Gt2nRJujS__mHeaA"}]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.WSv-aQ2wOohXPi-NIfzpLKaoljia9XVB3qyXvE2T7RXdOpVmhL5vKtc2IaIAVZD_P9D4jJKMgWNw53PTm7N84jH2NI_yk0QA2495L4_E54HBtpKmHliuqS6lnR7JES1sjYGN7moXeiaG7L1GJvl1G1n6iDE3pvTMb_fSUnOSn2jyaMMB50NFoMJwFjr5Zn1rEJRcvAa9gWbekfX6CqgtCL9UKNAqio9sZ4eZMJWidxBYk2aYnHgF1muQ0SHK2sxYZtV2Ddt84BTnj9c7E5KZ0YbjkkaoXclKXvSMPIn-1XoRQnuoXdEHsB8icfocXyX_bLHi-L1_OCwUJXo01ZTv6w._EsnyWZAViAodiAK.x2EW6uVTFMmSxVl6T1pB-CsCyPYieECR5WAGvjjNRMqnk7RbQ7vR2GkVLjgzCsVcwMLnylhE5OUPE_WNMCaFqJQNFrH-1bd42lCE9Ou5WqvXqEr3wP1yuhV8B1T-AYUL5aighO0ZEwTkruvoHTTYAvkT4n0GsejbcGjm97FlWSHBDmxHM-Cs35rbxvbKvA9klbOImgp4g3KadF6A38vgyfsev499Dkw2M0TpQNQ.49nTru4PJ7OdYHlcewHPtw</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.CCZx0kr3NWet4ZpAF1a5MMi7u5tjYGGkaGR0w4sb8yZsKVNZdGATbj8K0vNf4cMOdbCbCijA3m5ULeGelHeyBga7r2GqM_0imaZGUPKFdJ27vbY-hP3kpgQ0Ex9DbNktOoNFg1xZwQtbGwhtGdZpaWOQLgkXUVNWncQMPVhi1_ykTdM9vBaC9UaLO0YAbyjHzwBKS86P6PDS_DAXvRFL94OQ9b9rbyCUbXTNXazRqP0pg-cdh3lokJFEVIaXNhDvjutf-obZp2JfwapbFi9JngesWDyUzkm8qZKu-ZYFHT72WTrZRG75L1cs4TIkaK2zmN56CIPTTNvXgtIVwr0pSQ.oXlVF57MC5DWIlzx.wyVdBog0-Gwp0QrLvT3ANRRdN8cfzMUFUo-yDKcv9Ms8HuEm8tAbQP8ctnlia4jiCoEJt1Ftf5ZIXbAe7fa6VPkIjw9cJzs020SS_3J5_CCrLlVF0DNTfprePsJa_Ufcnzb5XN2aZS9Ti6unEev5rcuZatWxwnHmiWrD0qSqp4U9YGT_mW_9VEqUziip95NUH3f-s5OgXSsfUkbGxa0_0FHwKWz2P_GcI_JH0z2Q.uQBWjshvq17epMFiJWoFmg</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>A100000006291310463</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>b8999f48-a56d-4877-89c6-394321590d91</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>D3FC9582-7798-46F5-A66D-7C1374D8CCAD</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>timothywilkerson97544@mail.ru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>gHgkvCb7nwTdwcGsAdSb</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxYmM5YWZlZS00ODk2LTRkOGUtYmE3ZC1mMjA0NjQxNWU1ZjAiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NDA4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImY3NGNlMWFiLTdlNmMtNDljNC1hMjRjLWFjYWJiYTBkMWE5MCIsImFuUCI6ImNhYzJiNmIwLTcwMjgtNDg5Yy1iZGIzLTk4MTYzYzViNjYwYiIsImFuVSI6IjEwMDAwMDAwNjI5MDE0OTE3MyIsImNhblAiOiJBSUJvaC9hUFRsbUVVNnFzUE5PNmwvRVg5R0IwYkZhclh3VCtDKzRraFU3NlVnaEwyY3pic0tRU1VVQ0tKc3BHczFXWHhIUDBOSUlMNVJscWJtUkxablpyRFRSNFp0VGdxaWwwdFZ5WGdSL2lKRmVoMUxGRmNUMjZNcmt3dkl0VGszdW1ManpSQ1FNbVphZDlsdExQVEVKN3l1NWZuWlZLL2pOUGVXUDdERzF1b2ZqNG9jck9xODYzQVhXcTJXRjV3QTFGZ2t1TWZQZWRJd2MwdHJVcGIrbHZLUU8wQ1B1bnVoQzhqUXVVY3JBdDdaOWU5NWRHeXFCSUtSZVZtRnNwcVZFPSIsImNhblQiOiJBSUFpb2lVdm5QL3hzZHpuZ1piY3lZbmNsbW12QlY2Nk5iWVRCT0RHNzh6bjdLbFUvdXJHSHNKUTZFdVY5eGk2N1ZFRXVweDhUL2tkRFc2b3o0UmlpK1FQU3pyVHFIQUVXUUU2L2QrYXJQTTIvdy9sK3JVUzlaRUROeVFLZXlJaXovUlJoZ0w4OW5tdGZkUUF6SnM4TG5SZTVHMmZGd3JuMHV0TEoraS9XSkF2cXBSMUVBY1JqSFhTQm5UZk5lZWN4eGt2dkV2WEtFTXo4VnZmN3l0akN5cjBLekZBaXBkcUVFcmpWUUhLRWZlQ0k5dmluTjRITWVwQjdjdFJHUWRSMzc4PSIsImF1VCI6IjExZGFkYzY1LTI2YjgtNGZjNy05MjZiLTk3ZjhmZWI1ZjBhMCIsImF1UCI6IjEwMDAwMDAwNjI5MDE0OTE3MyIsImNhdVQiOiJBSUE4QlkvTUMwRTltNkVoVU54YzgxQk5HdGlvRThESFJwakN2K2t2NFZPeVNEaHpaRmVvSHV2QUFLQmpCTWdJcFVBbmJOQ3d3THpNVUJsQnJtZ2EzbEFjWjVOdTh1QW41Tlp5QW84Yk5YRnpjMnVmNDNJR3BoRkRwbVhuQ1VLTnkvM2lzZ1F2NG1aTXF2OHBFRVAyeEpUc0F0QUJyRXVGa1pJdzJlaENKTGhKdVU3cTAwYlhnb0hDNU5na0xzR2VtMmdGQ1JnOU9KNDUyalJWQkdRSnUySjJncG9mYWVYNkFPY2tESHBtYlordVovY1ZPazBwS3NIblBQbVVqK3BzS3FRPSIsInYiOiJWMiJ9.ffMm0o_yHow5Fe7nfMaV3RkK8F45wQ4yX9OKP7fdzVm7g4WwFaObXwRSpqG2HeKzpsT2Ix_IB0lJma6OzPHVK8g0jOA2oUuoGcZVK8j9KHmp1FBS5jdljSImUO1m_AqJ5m_XcjX87bvGPtDhCbXuZCGvuMMWjdtxqmhnMNf4pD7-_6fUYn-68iIy1h5Sh_VVsbECb6iQnEjSbmWmYOrSd_SQR4Ilr66vpjpgHBKqOjWjk8pWc46zWPQVGxRuUFd31GRTLqnHFxa6wEElQEBJKG2TTH57gADlVEvEcrbiAeWTjCXDEMiZZQUWe8eAxMWeiWhgHr1D2CZm7kwaeKtqiQ"}]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.RMfHipeEBXTzKxVN8mlxjYSCeOlDjUcZEzK0alVcnr_RFdfJKU9gHhnGN18WN-Mr3XsxCB6IkqwCYxDma7ucTZXV4LRh-I2Y4Y-ObUumpzR4USPGDMa4I4XMm1idyYTqhT4ElbolXU5dXsQ5D39C9KXjxja8BEEACqLfLsv1aLzMMLmGja8VYxrBzk5ham-AxP3fzcQQYaoaJhlxqxMTmxYhRXLEqHnGakg8jTLzADbsCy5YOYyTvFV0BLLql_K25MpEUlwGGpom7Xi2kKnsiyWekiQepQhXaG9fKqArb0S00FxUg4LosyI_BTJqtj5ymhoXokH-SV5HBWGaETozmA.lW2qXr0C77k2SpK0.PEmkad-wQN1CMrP01V9ITscBCXSsYuVeqbTJsi8DC-4G6i3cdgH3qqGVEUfkctkCiwzBQ-YyaD6XoTQq3hH_oXz5esycrQODOP2R2R-eyJ5drjYyL84gxaBwtX4rGNy4AZOF0VnJrDzwrA18CVh7YtMzwgknURRF7tn23z4FgVq-1EiWeaIpCC-BogVJxQ_zCw5i5KZ9HNLW8ZkvK8j-Rh7nF93Kudhg84SII8s.PnW0aYJIRpI2NCEWJS8_5w</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MAZlTetojhy4OCQXdJ7Ukq5kha6B1tweSPgLDM9T-dMfI1J2shiuNdzQwQPuXHjenQukqJN4PiB8i8vD3vjo5G0mNni1CP4mzRTxTDmf6QMlsJw9yb1-XD4rjesxEnmyrvbRfzvAodVTR2k7AzuoB2A7KvXdxT1XITLro8VVzKovwHVDOnC_v9MR6soRQSIXYj8GduD-eeehz3KCWYP-n323PLRCbLxz25YafTb8GvVLWZEdtdZIospzzeTheVQz5C9iCYx4kJQaUxDtmwP_RRwgqaer8RoFz9hA1A-vCMgEJxpf1sn1Su_LVcfVEM5eocCJLIDfh5gxuMBJai76OQ.tHsCtmjezMeGugNh.qhnFgI2zCOMtF7ZhWhMs02ACd5ZGIDrYZAEfOV-gL8vblDL4fq16Q4jc5GX4cB5hZTBIkNnNGrO_g5QGFfxIrKfzUOnfz_IZtvLxVldDvcgrp2tCGvi8cIFRcfUOGTk15z20-DUtX3s7cevkXQ64ZCy7pwVTk-S78r0IHelO-LTWgtZWGL4VX8rnw-RxClfyaGXwd7WphqhGpF99NJhG5oEs73tXW7jWMeY0fmor.g6g4Rab9KBlwJKraX6xPNQ</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A100000006290149173</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>d4970dd0-efac-4c7a-bacd-e278aab42a97</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>4B2253E4-B6BD-4B9A-A766-169E8157FB35</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>viovecrue-03@mail.ru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>YU9rmSrU8jzM34dcysDv</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJiNTYwNDRhNy1jZGJlLTQxZGQtYjZmYS1jY2FlYmJmZWM1M2EiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NDE4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImQ2OTdkZGQyLWY0NGEtNDk4OS04MWIzLWEzNmM4YWU3ZTM0NiIsImFuUCI6ImI2NTY0ODY5LWEzNWMtNGMzZi1hNzk0LTM4NjFkY2VhZTM1YSIsImFuVSI6IjEwMDAwMDAwNjI5MDE1MTQ2NyIsImNhblAiOiJBSUE5SHNLdDVtUkVCSlV1ajRYMjJGZnFJN3lZOUt5WVFGeWVxbVJvY3FYbXZXM1dFSWNzTTJVY1pZMjBmUy85MDBnZ3NGVmdxZkc3eFdHQU5uQ1VQdkNEcnhlR1ZEWnRYczRhYzVCWnE4NkxxeG5hdFlVNnVhUmJLRFJCa2JHMHYxWDZENkFoM0s2TU84MklaOHd1K2lJZ2kvblQ5cjkwdGowOEp1RTZRYWlnVno5V0ZmbElMeWk0SFNwZ1IwSUl6ODQ0NDRCRnZGNzdwdGpqY0s0c1laYWUwaEtWeEtnWTltSGhpQ0tNVkhGaUQxOE1vSllBaExzMnljcXRzTzRvOTFFPSIsImNhblQiOiJBSUFHMGpaRjc1bThwRjYyNmFuWURIZWtZRURtK293Mzc4QUFBa1BiRW1ZT0Z4S2xGQVErSXNDL1JhY3p3RDNWTW9TV25TRGc0Y1dKb2VORzVkMDZXUUNnMHRzOTY3NnNnaTZFU1o5YzdSNC9yQ0tISlMwakppYTU5SWZYOXE5WE9Jcmt2S2tXZEJyOGpuWGpFOWwzNFk4L01hSCs0ekdIU2dNZGt0T2Zpd085MFJCRENib0pHTVRUM1QyMitMRVJTdXpET3Y0WkRlRjQ2SDkzanliZE9kZG43R2ZCWUFBclBxYXVIQkh0ZDBqdStiY1MrMFRqZ2NuTzNTNFdLZ3N2UVVvPSIsImF1VCI6IjE3MTYzYTNiLThmMTgtNGZmZi1iOTM5LWE4NzkxMjRhZTc4YyIsImF1UCI6IjEwMDAwMDAwNjI5MDE1MTQ2NyIsImNhdVQiOiJBSUFmWVRSazNrVExSU0R0SUc1WlNvNU54L1NLdmMvN3Q5Y1JWTmRJQ3ltK1kzWmJPZXVKUHEybFBrS3c2SW96N3RuQVZ1a1VQelIyVkd3YTRjQVlhemZxUXdGUVJHNEdhd3Z2bHVKNlNKakg1dmk0anAvWmx6TVl4Q0ZjWFJ3NE5id1piT1FXS2twNDY0Wm5TZ3BvNnlNdE15STcvRWpOYXRxK2k0bWtEalZzWUtxbGU3YS9admhTK21TcjhFYXZDaFFNckRFKzB0WEk2SGc1SFp2SzdQY2R3VmNWK0tsaTg4SCtNeVJJSXI3Q0Y3aHJjLzR4RU9aMERPM1QwRGtrQ1pnPSIsInYiOiJWMiJ9.r1gTv6FX8rj327KUf-c6s86yRcikySd6_ndWE9LBwXA8QLAlAe-JQH-ST616uBOuDaSKpkMWbRN063A2GzphYlhdE8sCKO17NW3t_mWJ2bV6_0FIdAAQyLQNlg8WWBI5UIUa-8eUNZePBO0dgBOtWeFL7MUCQi0ZORRFkU9MDu0GpJGmI4oXB8G6dekQt7DSnw1KA8qKej85jC1c7zqLeqPVyBkdgrro8LH42rVYL3GwxF-ac3P7xEtLfz5J_GibML3OxpVGroO46_e2L8VL6bkGFoqUJgjQg8J4pDmS_PNQoZUXFR2NAPAQPQs7pgQ8-iM3uqV-Glnun7fm9UMWhA"}]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MzSQydtjLoMblG_PWnOSljbdQADK6GMgc1c8zq1v95rGAuDZ4h0CnY-38ec_ePQ5o2C9Nka07LH4zvG9VewX6ErhxFAwC28xMKttUOIB4FWvQVpuLwF0zRDqpiqEkL6GSkwJZqw_MbZnPCdRyjisteKEhQt7F5CCSLDci2i4WfV4t2uVbye_ZmYSNEciyqhcXfABAa7Zs0ZYUmvVK4XP2ULRbEk15fwSOEMpW5AmwZAWGwaWd2uyjTwcwct_FU9BxlikDqSYkKScU5M5_Zfhgzjc84CVJQYkl5-33ji0JHT9FNvULtWUrOJSdnTEDLeyeY8IMGr9gcO-R-QSDrDCJw.BPQkVL-1CW8Ex4Ob.auXEGY2fr1X_tWfSjcSWHZLvjIcqfAmIrMTceUJ_-7igy5GfiN_BMB3bbeS9081it-uB6nk4c3LHr110pw_9wxfZ5YFB9E8mFU4SYI84ZWODl5O-M_t0h5epIGjlN0oMQcert-7vsWpn79CyV58de4saufTJDZhR5Xu4Lxk74GYUFLCZjTZ7rn8ZsA3UajXVOw1d0geZTAqcvgbj7sQ2v_jle0MdJ6AiPUDZgc8.o1e1HBVCKW-HwDQn5em4tg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.K_l9EJBvpTs9JZiE3qpAkMefbRsqkZi2INntjg-MM4WLtXrK-ob3HEDXQ7m3ijF7G38g3RLfX-5yOedCXPzW4h544Henzk6X5tcj13zwFVh8Uvjkv0GrXUIBqPlHvYhi2IsrD6OJdJZNywyAZLw39DCaQYOTw5ANcrr_oheMUjgJ__fNjnX9zwqpwHPp3iBgf175Hn6s8BK6s9CnBKcoWUvaxvn6P7IZhr6wUAtrfLH0Gvo4f3Ntnc48kCN484qVsTxAh4LwZPl0LviQV7erITFTNL3gIR2e45QphpNvWRv8ODgdH7Cm3tvQFsj-xyRfRcciI-t8vxbY-xtVmWrSug.0aYDD_NzdpaznBuh.m9nxblMt2NpUMnpfqPeFLaSPtO7hOkL2hbICygYytgaxHWd7s07UcXN6iM8pZSOpdNS21RUVmvMOPqMnxMwK3We2JY7JYN7wjP83KZHyX3u9XUKPJuhxzKCJcLSJ1Gz6nRw3uf8yDsH1zRZO5Q0_so7zO97njwN-i4p-YqxtyMUK3eMHB80AZPnkHDZMPJ0yoaJnGi0WBl0EKONb8A9-z51q0C9b9JnJdzOa9mxT.57yg7GwgNdU_aR6tY_BwQQ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A100000006290151467</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>fa6ce2ec-1eca-4287-aba6-0501046258e3</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>79907C6E-94EF-48A3-A680-CEC26DAB189E</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>comlamagli1976@mail.ru</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SWbwF6CzK4ZGQYjwPt7T</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiI0OTg5ZDdiZC1iNzI0LTQ4ZWQtYmJjOC0xZjIyZDY0NTFjMjUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NzcyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjQ0MmZjNWVjLTY0MWYtNDA4OC05OGY0LWE1Y2M5ZGE4N2U4MSIsImFuUCI6IjliZTVhM2JiLTg4ZmItNGFiYS05MDE2LTkzYzVkODMyMDFjNCIsImFuVSI6IjEwMDAwMDAwNjI5MDE5ODIwNiIsImNhblAiOiJBSUJrRkxLemdJWGZ3M014aEl4dUw0WFVLMlBCNGRFaTc2TjdLeTluQk5pajhvaHBqR3ArM0dYSEs0enp2TGpjT2ZTU3JwYWpkVnEyUlpJdEpGR00xUGVKM1RoempxOUN0OEJTVkhJR25RZWw5VXNDZGJoeW1xSXZVVWZ0VGVRZkNrNEhjU3Q4ZDB5dmlMa09DLzFJZURDbXhFNTkwZ2c2UHJJODg1MndCSkFXYkU0SWtRRTU3cnlleXlLR2VqWnduM083c2NoQkZxemFtSk5wcjRLOFZCLzh1WjI4NmNPZ0VMdW1YVkZLay9wd2FOWEtubmM1MUlRVVBGRFU4NnJxdEU0PSIsImNhblQiOiJBSUJGYVdORzd1STVKOHMydXFla0o1SUxFVnNTbi9lL3E1b2xVZG9Dbm4xNnZXbFUzNTVZeVVCdzlydVRBTzJzNmJzbTROZ1ZhblpNS2RDa0xXdTI2bzhCWGxYZlhYbGtIZmhoZmJOVlBjdnoxTCtWaWJidi8rb0toUTRCaHlHNCszTndkOXdHOE5DWDlKeUZNclAzcUZnK01HNWR2RGVvaTYrLzg1bHVnYlBKSm5yRWhablAxcWhORFNsVHFQMUpJOGFaSHFMZVFEMXVQanBBbVBYUGIzMGRtaFQ4TWVoOUQ0bkxYRXhSNXpmczJWcjJuL1pHRU04djRaaGNlaUphaklVPSIsImF1VCI6ImVmMGI4YjFhLTg2ODQtNDljOS1hZWQxLTRmMjE4YWQyNTkwZiIsImF1UCI6IjEwMDAwMDAwNjI5MDE5ODIwNiIsImNhdVQiOiJBSUJ6S05ZczVKUWlOZE9iVTlyNzdyTmJuMERoekZVVHNBbGdYUmc0aEpSOU5ud3B1M3g4c3ZlbHkvbmUzNCtZYXpDeWJtUGNQV0ZoUG5OMHQzajdXdFBrZWNJQlJtZ29NY2Nlbi9YTDZ1bGgvTkZqdGg2SVB4Q3lkcmUxV3E1Q2Z6WWJFbytsTDU4NTdZamRCUTBVc1ZwNnFKcGJJbEx1ZUhJQ3F0ZnhrRjR5K1M2amVDYlZTWG1GSVVoZGw3eUo5SHRYd0h6Y3FUa09sOUI0VFp6bCs0MnpualZleldwR2l6REdscGRFWjdqdXI5NzgzWFZaWG1zUk16QVNQa2Rjd25ZPSIsInYiOiJWMiJ9.Z2MIxq2BJ3Uf6z4xIVUImo1ff5Kzp5CZmAi5Dh6cqEyVuQqlEwK5QkEBNie9fEbGEcjmJZ7fqvuxLVPxL283ptdHs249z8tDkFv20yRSIrpqQ3I1ruMJIV6GD13uKTokH_Tx2suQUyHyGj-FpdzfEo8nLpGG5dYv39QBj1KU69i3r5yUyOhzbkQtvzLSBic9YNXaWudKMSBvKhrGCF-PDfsr9GqqryOnn5hGwamEi6q4pe45IL3oiTorPQOLri4z0CZJkqxe9VwCFZaySdr00HXibhDmhyp28yGzLgWDYVjBKK7Y2kRkiR1rfr_E0wXB_NZ5EI5X8G3BsQCLcc0NuQ"}]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.NjtkFWuQm6R4eJuAXMZWZfk9KHYXgiyGEoVIHgDNhKIjGqRWXkgtIb5iTFlnNLUjJlUbBuINV8G4_aMNQtd2N1ECpWj4ShTrOnceuJP_cKvY_PoymISbayClKNTXhqBccHq8gT-HlXCE83YB6uuIz53xVn-CRM3BNv40839ayMbGcZo4bOP1kaWXR9TQ2UWBc9mE2mDTBRHSeRCbmbglYzWMiJd8f3ulBKlqcq_Fy5DKmeMnXArHqmSACcHFOK7ojbb2_6OH37N3X92SZbsIzBZ_kaWyTCWBkugETNNvee4W_c4VZdDyRfplXY0yENaJ-1dt_aFcCq31L8BFwMq4yw.h6RpUOjIBdGMxIvI.nutZWaHxKSDhOhDIARINsn0-DJuO6oL5hBemW_5VmZ-lj949ZdHRh5MUEzqIjAXyBkZlF-9jkQFXiGswrCbaYDVZXQGgxPprS49SqSLfqTambws785iR1hTVKmevhgpPE89TWl9-XpXPqVvGLPOokU9SQKCoGIinVqcXn0JCCfAJzpl8eF2SY96U7EtBVIrszMmLI2j_9X0ZRu7fPm5kt83KmKuW0fXh-xX-8JE.22pS35w_c_J6r1ZhOdBvow</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.MmN5l4uCngnsZZLqT9zzubeGTp5fTH1pPdKhdt1mRNR1JLc4dqJr2r5dYejeWb7r7dZIcAFgAP-SH1-N5o8Ol4cea0lmkFOuUME-H8s5K8-mi4vmnY4AERYYx6YNntXYncEuEiC0RAFe5mzpRElW7e9InR1tNqiEmwVp1wVHS1w_uCYpvdw3MNqCHaTEcS_5OUxZ_9uqDaWDt5y74XP8LdGTKTRVM5UrrLW_6ZELv7Gl66Gp6L4l2Q7J4BsfDLuziOa_r9T09sMV_m_4IQtlQodJXMWj6D0w1Afw7CM5MECu69-5-WKBwd81WrfxwI5mDvx7kb_DXFLRopWZ9sFLGQ.bac-l5AEe_e6jRM-.DxbubXBZDoU8XOdspk9b7yT_AYVnzwWPqJ9lzUlEnQ4oAblQx3GSlHzTF06qapFyWWDgglIFo2B2rADnMAw76YEiUC42YuqSgDKTdQZkYM5JOXQ30Htx58ILn1qH6Us83HYqYvSLiB30gH4rmKS9fBwrm8us33IuDRY_0o8v6bV8bVQYxe4_ilddKudmcTVtbZF2prooubhN6Dpzuo8eucowI78E0bEsKN1wBA_o.KGb2-dAKQAPygXLilK35TQ</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A100000006290198206</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1aeca378-c50a-4278-9702-24d2c180183c</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>7AF0D7B1-5E5F-437E-A723-9E5FC11AC7C5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>exilcom-12@mail.ru</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>EJdvsxqPFp2fY3i7dtF5</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhODE3YjQ5NC00YTUwLTQ1ZDktYTQ3NC1kNzk3NDdjODM4YTciLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTY4NTA1LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImUyNzZkNWY0LTg1OTgtNGM4Yy05MjIzLTliNmFmMGQ1ZWIyYyIsImFuUCI6ImM5MTgwZmZlLWFjMjctNDg1Ny1hOGNjLWM3ZjQzNWU5MzU5MSIsImFuVSI6IjEwMDAwMDAwNjI5MDE2MzM3MSIsImNhblAiOiJBSUFKVGNCV01xYS9qZ3F4Z1QxcmlIWHhINnJiZ0JXYTcrZk9vN0JTcnZBanVxd05GT2ZNTVcvWHlYRGJqd1Rmd2FoQ3dVakRDZmZkZkYyMFQ0SU8wYlZNelppMGlIUks2WENnTXlQSk1NVWR0aUo4bDEwRUg4ak1yL1ZNejBoakhybTVtSVBxeXExZXVpbCs3NVJBZG4rYlJwdEtjL0p5czVLVS9sUUxidzJYaE1Ic3BJWXAwU1JQYnFJRG1DU0s0cFY3RG44b2Y5QzNFb3c3SENwdWxzRmpXTzBMQlZmT1gxOTZ6RThOYmp4bFExcG80bWhxYlZuNEs0MzhyekhjaDZBPSIsImNhblQiOiJBSUJJODZsT2Zmcks3OWV2YnM4VXJnaTlyMW0rcWluc3VEaGoyaHJpSmVWZStmWFZteTAxZFlUZnNibS9ES285emhrQzV0dFB4aG9hYlVVZUxNWkpDU3ZKVnZsME9lbTN1OXV4UitNQkVKNUNiSko4NUpzNUpsWjBuWEw3U2s2U1loajRpYnhURHJTdzRtaG51S25HbmZOWHdIdmc2NXoxa1NOYkFLZ3phNG1GRFB6cG9xMlltVE1SSExFTk5yUml2d0t1ZytuNFFubHIrOTVrS3FvUmlhUy9xRlRjcjRHc1QvQnAxSkEwZDBoNVRVcitORW5hY1ZNcHZ3R3BTbTZzSzZRPSIsImF1VCI6IjhhODRlODBkLWIxNjctNDhhZS1iMjZiLTQ1MmMxNDBkYzg1ZCIsImF1UCI6IjEwMDAwMDAwNjI5MDE2MzM3MSIsImNhdVQiOiJBSUJ5REQzUWtoRjA3RiszMFJlRnZIall3ZzZjVzRnQ3NRZFlMUUxLMGFuOXdqQ252KzcyM3h0MGVaSEdOZzFYRlBXRWlkM0tCRE5JQ2FLWmh5L09xWXZRcVpuYkpkaW5aUHFRUlNmcDUrUll2d2tTQWpjVlQvMDl2anJHSlIxMFlLUXJBbnQyL0gzbHNFaEFENlpWbXhuTUM2dTdPSDFPOEdGUlFxSHpBNk1Od0VxOGZUT1lSNlM3ZUFRRng1UmpPc1V1L1RsU2Z6OHNYZ3F0RkZYeTVsdzhrQTRwZkJ2SEptOXZXRXB6aEloOVBwRmVHRmE5enQveWVid1ZHdnRvT0tJPSIsInYiOiJWMiJ9.IntMXd0OliD-ApGQrCC1vXCnDzFl3nnjXCAzpRZQFbpMOxn9kow6R3lRzIdVul7e9GO86Lnw7EGQwLYqDusfwhufeyATb6jqJmAcRHY02azZdRt-Db2Lj-meNsQampgHasr_LCiXV2UDUfmIL3TpsbW5nae8HPEz1sQmZc_GBNvrcqM9R_-52Z6dCJogP74cGqWCmKLyAhna-hTczRhoki6wKE9C5uuJaKWRugG3OMF9EpNMl2TABlD-IBdfB_ShMxAP3eKaqf8bu5mHJM78FsMBUwUDQ1gjtrEBKwEyAZAJu6ttqdAtR3GsC7xayg53eZIWc0szF0tQMZS4ZGv2ZA"}]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.hdHRk1yLNgZFyYQ5nLY0nbYJ70NnGYxZhQ7zEfbseRaKbnpGWTO6QcFWzzOIIJ1vPG2aO2URbmvhJMigoyl3ubh7K6A5Ni15l_rqr7Vq4LTaQRxa5YyT43UKpWbc-wsuZSCm0Mlqs4tre13d8LEtzIr3RW-khaRNL2zJDtpmdNvijcAgzbnSiGS_ykSdMf4LS53FKV7GiV2WpqKnffYqwKy3Zlz0Gki4lYAqwoCjebYT87ttheR7vHgrkiKBXomeYkf6fL6Hrs1Zi2Y2TVKoCD61MY_hUsXqq2nOaUGB1tHJ8gtJFor6QYDr25o9JzV0TjrzNg3KJ3si21FgO-W5yQ.2b0u-UqRuRBD4mBP.EQ0SZGVqR0AqzLBcL8vE4b4pJU1KIbdd4OiC4ZDm60obchEM-ibyK7Ia8KUTMskbFN2PdCqEFcAelBDvRxy3GOlK54L0zd18FtC93BNEvt3bRQqd_QYDQ20KWm6ZimapWypPcVRAOPiRFhE2PNlUeKTQ7qvNdYzT7hX4ML9eXnzmFIHt3pQLPyLWKfxZhExDRg8ZPOQPbMq1KkqqQQ8i2s5Lipsxl0Thzk3yi1A.LeKieEFrHu_1_18kDVQsJw</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.bc6BMw5k_Ug4HYyFF4VTSCU8_sNoOj73TRmhcD74CQIYdaXXftnTUMyuN7XfUkAMeU8if7xMvzLW6CuMg93qQEoelw_JD8SOvxuLYNf7Tq2j57gHmnFNQg9deFmT2vqUl2vRA8iXA6PcI-W3vezeAT0BKlb7a9YXfZYHar4RBfMlP1vOPm0zpGRCU_9ALHEB3US6udf_GRn0jmgLdxXbMtw-OtyOeKUQDnaSHFnv84Y6KgdK0gS995hBfMLMCidgi1_27WOgWEuOJ5GCAfM8eGhI9vzemwooSIdlQeERqt4AMeT6Spp6cEYQ0nX75jpWk7TJ3ceBsF0_wFovRsBcsQ.XayHmTQGaJC6zlpA.-AxlDPv5nAFnrqDFn4CcqTMI1mddle3eC74H2ZXq71-sabuacqZcwwMlnv5hFBudeQJbOhEBDl-ShmM3sBgqTKyAAEgJsEM08_oH8YsoWcqMnVNczTe9pxcc6eQnkrihnjXFEbVgUqAERcqIzS8Lf-s7zImgYLrksDezo9M2FvEJekpwcVPHPf4Ha5GxOTqGXdt8TJzugMEE8tV1DcQOOJZIt7Iqpp_ErrrjKRTA.tZFIdh-530TAXFXMEAFddA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A100000006290163371</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>9903d4be-76c6-487f-92ef-237ba4955d11</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>DF9EC964-8A9D-41A2-96AD-0B6FF0BC85AF</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>aliia.selezneva.17.11.1977@mail.ru</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>wtnMHMraDXqWnbLfGwsk</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiIxOWE1N2M4YS0yNjkwLTQ4MDctODM1Ni02ZGQzNzgzMjhhYzUiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTcxNTU4LCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6ImE0MjllNTk5LTBjYTctNDVmNC1hMWIwLTRmNjRlZjg1NWQxYyIsImFuUCI6ImNlNjRkNTNhLTBhNmYtNDdjOC1hOTZiLTU3ZjZjODY3YjBlMSIsImFuVSI6IjEwMDAwMDAwNjI5MDU5OTEzNiIsImNhblAiOiJBSUJnRmZ3aFltWkgxVm9xUExNSFNKN3FvdEZwU3VaNzY4eWFsQjhmSVJodlJlR09JTTJnOVBDemxmSSt3WXFJZ2VmaDhxVmR2dng1NklEcWFjUWRwS3oxOGJadngrSlNKL2cvTmJqRXgyRUhiMDQ2QW5vbllnM0U4R2pEZEZVZUsxSHp4b0dKZTNVMlZjSmw4VGRRdUtCWFdZUGc3QzU3eEZCSnQ2ZmtiNWU0Nm52OUJBR3dEM1hxUDJLNWNXaDN0UVN3ZUVHanRJdkRlY0tUS01XZGJwUURIRzhjWWFWanhDcmlLOUptU29yNXMxSlBWZVl0a3UyRkhGd2NBK2ZUUFNzPSIsImNhblQiOiJBSUIwSHVJbHBsVFBaclFBbE13dXp6b3FIU01tU0pncnd3UDBFb05VbWVUTlpyK2dWcmJ2eTIxa1l0cDhFand4dVVsbTdGMVJRYURtSTNCejNjcjRVRjcyTkhqVlExMDNBV1JVUWJQMDlETXo5VmlITnVvSlVyTjNWdG8rcjdyY3J1dVBGSVE5c3VLQ0JkUFlrSWVHOFRKQVVJYVphRXVRTnV2Z0tOTE1LVW81Ym1zT2orUTY3ZHB2SVB0dGxrUmpzZFB5dERiM3VmOHJYam9IaXRuL0ZoRytkQi9mbmZPeEMvSEdraGQ4YW1IcjZyaytPOHFqWEY4aW5DUWM1eldhc0JJPSIsImF1VCI6Ijk5Y2ZkZTc0LTYxYTMtNDAxOC05ZDdiLTZmMDJmNDZmNWMzYiIsImF1UCI6IjEwMDAwMDAwNjI5MDU5OTEzNiIsImNhdVQiOiJBSUFmRUhZalRGMkJLQ0IvdWx1M21QSmtHaE11RHVKbEpFV2Z2RHRuUFd4RXJaSDRTcVBRZEttOXVCMitOanJDVEF3dGw5alNKOExzN1o5dEdzWmJzcm1JdFVBUXZLRkxPb0l6Z29IQ0ZhdVNhOGtXbStnUTJGRHE1djh4M0tLUGd3Qk93ZlVPQTNJZWtPbDNlU0tqUlNKcVpZM3hUR3c4eGRTTzlES2N6a21JeUFqdGFOcU5kVFVTT3I3RWZ1WUx4MEppU0w1Q0dGYmMzVUEzM2NXb3JRV2V3K0x4VEUzRVQyZDZPbzVBSHVDcHFnUzdsNDQ3d0NVU2FCS20xbXlxbUpBPSIsInYiOiJWMiJ9.jLWuiCcRFFu4GLB9iDp2N0AS09LdSv6DoQ7Il30cO7jGZm3OAdUwf1m5gB1c0BCBPcmIEhnrNtmyPtQZggRfAQzfLMZr0iJWZ4e_zLDw7SA9UAW0kJzwDlGHJdu4dqL73sDTAt3JeVjypUpNs7XLt4RkZpJHKdVMotwl2OcW91JAW8Z4XbeL57-_PNh9_HHEDYu6iP_hR_QA2xCgXg2JLjWqrsxU7Qav7xoBeY3E1Kcv5CaCDTDhg6FfrSP3TFApQuSYMe5HjI3zCsgptXit3W2-XKnOgdS05ODxdf_Vu82fD3twb0BZp-sGH9c5KzRN_EHcIdytDud_WZ5gmB7wKQ"}]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.TE45KvgkSxBTkX4417D_DwgB1ddEeilUSUPJvrup_q00FwOJ9PWarZnKFcfn_6NH20U3eW-bG4Pf83yPMZD5L8TnJHAqYeGHlnz_dkKFPZ9Pei1Dn0Lbv8QqQ0W4Ee0Mf8YLyfwJixU0fDEsJ0kXDlz0xd-rGq9peXqYdDrRa7qUcCXx-0gjFWebtruV1SUho0l9vq1LIVRl9y6LbtWbNXRSPpxFT1worN8IgNv7xDjJnhISk79JLiU5-cjMTUmYS763Ay_aTPc9tkiJvneccV5hPqkcsuZD3IA-ct1jVhqBVvq_BgAP2p1AwSVAmCThs9rQ5uHtFopEAjzw-oHehg.YQMNbH5a7Uy6X3mN.RJiQFaaahBM1X1j26yd5qYzb-eZMqYo0bkUmW4JiDjBUa-szlTF4qd5CKhJTbDYcjrRJuSUVCS5LH5jQI3nrUv2e3-HeXD-pLP1clThBNtydG9_xmmcI45iIaCkbHBxi0OAZ47aZqcyNYRWYXoDQWuU0JDJPdZTnXDdP2t9jf0jxwKLRGDiAVoHEkWh5J1mujSmY8lNI7Yx7TczXK4Kx_5l_b4tthD0uYgY5rH8.lidL88kO9odq2gWFmeslXw</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.EtsBumOlaezCgz1OLswVVtzUJEsGKftPuwxb0l3_cem1UC13Vw4NcD8b3sS3LuLtmAbvs_OA9vKo4I5PCnykrztB7egmkuGHXv_ONiUwzd_ON1TMP2GuISQuK6AIyKXQ7qT59JLKxmcYwQ6FzhL4w2Xuj8AVw3zFfQIvtJG1hQABRlEqfq_CMdhJqBX3SEzt1NKARFexmbiC3CX3w1Vyf-b_tSeln05JvIdFOO1NY81Sd1TP1xZ3Aw9DxuwhPCoFPbs9W9WREE2jdnhjlD39x5Ug3LPvMLsOoctm6lgxh5a3_RY_MCA10YId4WWx4WQNpFRyoXE8nsIMDs_p5DkXEg.qRBDjllgEVJrJa0n.Po2rvRU1AThGanMDT6qiA-_EfOAloCva5ROn4MPuGChMqX5BGXBqaBACqxz9eH_H8Rmj4wFkLSp1s4iZb9z4VFWZpQdNSDJ9j9eM0O0E0882Qm7tjdgDZb97cOUdxXqYPmndVKJq9lElqAMvUksR7b6-UtfCIuZChQ0PmORRtGVAdROTae0YW-8xoHgG9QATPZ9i_JwXzkYACWvDgZixo2lR3XbhE6yOlr8ZvzrD.ABj_QbRy_1zgIXQiveIlXw</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>A100000006290599136</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>cb01283b-52cc-41ea-9c0d-6f710f055580</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>6581CF36-8B2D-481E-8019-10EAD9905586</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>quiceliarham1979@mail.ru</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NEqXBH05LEeAdP8earPE</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[{"domain": "www.sportmaster.ru","name": "SMID","path": "/","value": "eyJhbGciOiJSUzI1NiJ9.eyJqdGkiOiJhZGI0N2VhOS03YmY5LTQ1NGQtYjZkNS1lOGQyOWRlZTBjMjQiLCJpc3MiOiJTTTMwIiwiaWF0IjoxNjg1MTczNjkyLCJhdWQiOiJzcG9ydG1hc3RlciIsImFuVCI6IjliZWI2YjhmLTg2YTctNDNlOS1hMzlhLTFiZDIwMmI0NzhiNyIsImFuUCI6IjNiNTYzOTcwLTlkYWMtNDIzNy05NjA0LTJmYjdiZWYyMGM2MyIsImFuVSI6IjEwMDAwMDAwNjI5MDkyNTcwNyIsImNhblAiOiJBSUJpWjZiYmJZQUYzZ1BDV04wb3hnRXFjdjRRZkVCOHNkSms5Mkg3VFh2MU5aKy84K1VoNW9xakVRY0J4NzI3UWlqd2pqbDU2M01iejVBbjZ5MkRFR2d5UTN1K2FWckdyemJvU0VwWmswRkJubXc5NVFCQTVMVTNUQnNuNU9ONEZ4M1VsMnRFY29HYlFkODlBZ3liNWFvZmZzLzh1TnV2aFJhUFRvaURNNnNQSy83ZWYzdGNKSE9nN0N1Q21CTEpjb3E3ZGpMc2NZdm5aU0VmRXI4Tld5WndUdTFHbGxvcFJ1cktMNXJRNjZsMWlBRHpCWWQ3a1RheG9nRnB4SFJjVEdvPSIsImNhblQiOiJBSUJGbjE1ajhyQVVqMXJOQmZQWmxtWmpiWkxKTnBUMHlSTXRtNmxCeUp5ckpMY09WcW5pSVRZQXJhNHA5eUtQLzZHb0xBOEFWY1pRUDZhQnovRHN3VFRIbFhsTjlmOWhnc1Z4bVlWMUxob0I2c2VmOExEdEx6cG1UdlpGVE5tVWpxQWtyc0FLVllwMDBjZUhQbk1aWis5TU93LzlpSE1ucmMyMXZramo4NXBGbmU5dENxdjRqakw2c3pZanFoQ2pnOXExV1ZjM1FnM2NTKytRSFJQUFdIdzRSZ1ppdktKLzZsZnRlWkYvYTFEZ25xejVQamE4cHcraUNXeUtxYnR5UkVvPSIsImF1VCI6IjU2NjUwMDViLTViZDEtNDQyYS05M2MzLWQzM2Y3ODdiNzYyYiIsImF1UCI6IjEwMDAwMDAwNjI5MDkyNTcwNyIsImNhdVQiOiJBSUJWQ2lxeld0a09kUmpDdS9Ba3htQXdWb1dHK0s1RTI4cHpNbXRaaDNPVXNpZUZUSk5IMnhsclo4N1U3RGYxSUszYUtQVFJ6T09PNVZuOEJnMHEvelFyN2ZsYXVodndFV0Uvam93d3lKa0N5NmdhTS95aDdXUWhoc25sMmh4T0FnaEg1WG5VQXhjUTN1dFVWZFo4OSszdnNMdDBBNDNpUDBraTdCZU5PM0kwMWx4NVlaanVjQzR0VDFOdm9LYTJ2b1QvTW8xQkk5cmZWVFBoWHpBMlQ1L1pCUlpubXhrdG93UWJXUFQyeGJ6a256RXVSQVA3d1NwZ0RpbnRSRWtwbm4wPSIsInYiOiJWMiJ9.rQXTP3g3-0f6_9sCiHGKpQibMKa5KWkVUB5Qixz5HgA-e_-vMC69dduDSxlW6qdiiVXWDGKkxz06EQMX_IBuY5ddXtH0kO2HQ8ZG5poYwVbFyOAocr4UplhC-E7VN0PxmWr0Mr_6ASq1H7uI_aQ_GwFVla1pmGxSl8Tv22hMm5G8pPakW6waiRnh1b2qvJRkqT3WBDIqAl0QJ7JUCJ1DA6wM-Fr3Sf0fUQd5zmg4FIi_eayk3S51SSR0r08czYLMsOHSI-doveKd1v7oo-l8GNkpust52lI-FpYU2bAN_V4GrrbkfsucLUuoEzR-Sf7OsBbvV_JY_Ajr2gfyvEYi_Q"}]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.L5Hjlv27tR81n1N8A1d03PFi1MJM9NK4l9k6NLx-PCw71tkeV2OmIqBDgfQFqRgKRNiIO5z0NcomYFKOEXl_1ghz4a0zr0iiH5I5G-llqtgYY3W2sw2hPPjrlV8TzaPcId2BdJCijP3wJDgQ9UrW3NsT7KOL1uaDgk5H2pZGN0uXGyEcmy7q3AVyRJK-3tBHFQcWYoRGslWG7vxWlY_VlcF2-n40h_hE8nqbSC1CftKZ9iXYPElDOhJrFIGCCP4uy8jbTUGWDo9fufkkvFCXDJHadpPYT6YQaWcrElR0kbMzn6xzXaM4GMrcAMGuRRLLjq7HHBaZmeTDL2IfHz2soQ.GErEhMiTcQvEuMbA.dWVvLdJc0nDLWUIKm8XEauWreqHWTXrw8dv5MKRyQUr9b8ClwNMm-pzkjIRC0pZJan5BV5jNnekLKwin180X4MBHo9PNa1O1MnT8_WYQo3E3GWSCf4IcFsRgCArFMW7FOABBVjE83KC-VZEa2f_PUpXfpNMK1C2Cr2hWu9ZNaDBINPNMe0VhUPj_3eB2ODk9bVRc6ToF20zF-X77Rbdr2QXSOFtZq2wcsAc0HMI.fXwkvmxFXC48DgrKbRnKHQ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>eyJ0eXAiOiJKV1QiLCJlbmMiOiJBMTI4R0NNIiwiYWxnIjoiUlNBLU9BRVAtMjU2In0.Of8yP4UFXjXykttxPsz13ZrJcplM-72_A0uzTQO7uNODiaDpS6vOEGdEBL4iyDm1px7ROuL46zp63bZwkQXm4I8NFxneTv2WxG3huj9LMNHRGBKwD5D3rIYruh3grawKQvHa9Yh_GxcD67IvCcGUoJuUc9t5oThhf7qR9aQU2X7xy1zK9tb0ok2k1DKUwANRAxx_pevYekb-IyC_6TdnM9YP6kZQi7p_6t8Is5AeAPOFLN0ftc9LIXE9HIobpfj9uubbGQkleXZLlahgcUqw2E_KWH6xA4vMiT-Dmjqm6lfJrdgZyTNIGuFp7w7r2O1d6cIA36t4-BMeIrskW_IWzw.00MpqJd0__He4Qfd.bjt_JKwOfbmCKIIsbqwixQegw_Oazd7-lvzVWsEQgxaNd00Keh1I_RrmWs4PzpWQwStWBbQFe00s9oXrs_rY5OsKWPfF3nGKxYsdhs8U2oPCw095Z0OlGc6756g3hgkHnCoJdwTWzclZuiULGf1rSM2b-0tRuMmeYJV8h-S9SDQ8MaxxGXhk2P1G7_bwChKaf1TTcLW0yEryw4NyKyqVzalEinynit3TuTMRuw0Y.wKT5L9R5a4ywaEX1z10BMQ</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>A100000006290925707</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3fcb1d79-6105-46f8-b402-93e9b44cbbfe</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2F617B00-0D51-4D98-9B06-4E0E663C030A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="0"/>
 </worksheet>
